--- a/Planilla-Verificacion-Obli-2-P3-Ago2021-N3A-N3B.xlsx
+++ b/Planilla-Verificacion-Obli-2-P3-Ago2021-N3A-N3B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Escritorio\P3\AGO 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CB1F71-88FD-4E1A-8342-A9E5518EEA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FB4060-92CD-4379-8ED6-B1955AFE8F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>Item</t>
   </si>
@@ -272,9 +272,6 @@
     <t>En caso de que no haya actividades coincidentes con el criterio de búsqueda se mostrará un mensaje.</t>
   </si>
   <si>
-    <t>Listar todos los ingresos de un socio a una actividad dada.(Usuario autenticado – MVC – WebApi)</t>
-  </si>
-  <si>
     <t>Solicita la cédula del socio y el nombre de la actividad (o listas desplegables). Puede acceder seleccionando la actividad en el listado anterior y luego solicitando la CI del socio, de la manera que prefiera.</t>
   </si>
   <si>
@@ -295,12 +292,41 @@
   <si>
     <t>Al menos 10 ingresos como datos de prueba y diferentes combinaciones para probar este punto</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Listar todos los ingresos de un socio a una actividad dada.(Usuario autenticado – MVC – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WebApi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Diagrama de clases de los servicios WebAPI (las clases ApiController con sus acciones)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +378,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -616,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -739,6 +793,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,10 +1019,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ES1032"/>
+  <dimension ref="A1:ES1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2311,9 +2372,9 @@
       <c r="ER13" s="8"/>
       <c r="ES13" s="8"/>
     </row>
-    <row r="14" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="12" t="s">
-        <v>10</v>
+    <row r="14" spans="2:149" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="61" t="s">
+        <v>86</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="21"/>
@@ -2463,173 +2524,173 @@
       <c r="ER14" s="8"/>
       <c r="ES14" s="8"/>
     </row>
-    <row r="15" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+    <row r="15" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8"/>
+      <c r="BC15" s="8"/>
+      <c r="BD15" s="8"/>
+      <c r="BE15" s="8"/>
+      <c r="BF15" s="8"/>
+      <c r="BG15" s="8"/>
+      <c r="BH15" s="8"/>
+      <c r="BI15" s="8"/>
+      <c r="BJ15" s="8"/>
+      <c r="BK15" s="8"/>
+      <c r="BL15" s="8"/>
+      <c r="BM15" s="8"/>
+      <c r="BN15" s="8"/>
+      <c r="BO15" s="8"/>
+      <c r="BP15" s="8"/>
+      <c r="BQ15" s="8"/>
+      <c r="BR15" s="8"/>
+      <c r="BS15" s="8"/>
+      <c r="BT15" s="8"/>
+      <c r="BU15" s="8"/>
+      <c r="BV15" s="8"/>
+      <c r="BW15" s="8"/>
+      <c r="BX15" s="8"/>
+      <c r="BY15" s="8"/>
+      <c r="BZ15" s="8"/>
+      <c r="CA15" s="8"/>
+      <c r="CB15" s="8"/>
+      <c r="CC15" s="8"/>
+      <c r="CD15" s="8"/>
+      <c r="CE15" s="8"/>
+      <c r="CF15" s="8"/>
+      <c r="CG15" s="8"/>
+      <c r="CH15" s="8"/>
+      <c r="CI15" s="8"/>
+      <c r="CJ15" s="8"/>
+      <c r="CK15" s="8"/>
+      <c r="CL15" s="8"/>
+      <c r="CM15" s="8"/>
+      <c r="CN15" s="8"/>
+      <c r="CO15" s="8"/>
+      <c r="CP15" s="8"/>
+      <c r="CQ15" s="8"/>
+      <c r="CR15" s="8"/>
+      <c r="CS15" s="8"/>
+      <c r="CT15" s="8"/>
+      <c r="CU15" s="8"/>
+      <c r="CV15" s="8"/>
+      <c r="CW15" s="8"/>
+      <c r="CX15" s="8"/>
+      <c r="CY15" s="8"/>
+      <c r="CZ15" s="8"/>
+      <c r="DA15" s="8"/>
+      <c r="DB15" s="8"/>
+      <c r="DC15" s="8"/>
+      <c r="DD15" s="8"/>
+      <c r="DE15" s="8"/>
+      <c r="DF15" s="8"/>
+      <c r="DG15" s="8"/>
+      <c r="DH15" s="8"/>
+      <c r="DI15" s="8"/>
+      <c r="DJ15" s="8"/>
+      <c r="DK15" s="8"/>
+      <c r="DL15" s="8"/>
+      <c r="DM15" s="8"/>
+      <c r="DN15" s="8"/>
+      <c r="DO15" s="8"/>
+      <c r="DP15" s="8"/>
+      <c r="DQ15" s="8"/>
+      <c r="DR15" s="8"/>
+      <c r="DS15" s="8"/>
+      <c r="DT15" s="8"/>
+      <c r="DU15" s="8"/>
+      <c r="DV15" s="8"/>
+      <c r="DW15" s="8"/>
+      <c r="DX15" s="8"/>
+      <c r="DY15" s="8"/>
+      <c r="DZ15" s="8"/>
+      <c r="EA15" s="8"/>
+      <c r="EB15" s="8"/>
+      <c r="EC15" s="8"/>
+      <c r="ED15" s="8"/>
+      <c r="EE15" s="8"/>
+      <c r="EF15" s="8"/>
+      <c r="EG15" s="8"/>
+      <c r="EH15" s="8"/>
+      <c r="EI15" s="8"/>
+      <c r="EJ15" s="8"/>
+      <c r="EK15" s="8"/>
+      <c r="EL15" s="8"/>
+      <c r="EM15" s="8"/>
+      <c r="EN15" s="8"/>
+      <c r="EO15" s="8"/>
+      <c r="EP15" s="8"/>
+      <c r="EQ15" s="8"/>
+      <c r="ER15" s="8"/>
+      <c r="ES15" s="8"/>
     </row>
     <row r="16" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="8"/>
-      <c r="AP17" s="8"/>
-      <c r="AQ17" s="8"/>
-      <c r="AR17" s="8"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="8"/>
-      <c r="AU17" s="8"/>
-      <c r="AV17" s="8"/>
-      <c r="AW17" s="8"/>
-      <c r="AX17" s="8"/>
-      <c r="AY17" s="8"/>
-      <c r="AZ17" s="8"/>
-      <c r="BA17" s="8"/>
-      <c r="BB17" s="8"/>
-      <c r="BC17" s="8"/>
-      <c r="BD17" s="8"/>
-      <c r="BE17" s="8"/>
-      <c r="BF17" s="8"/>
-      <c r="BG17" s="8"/>
-      <c r="BH17" s="8"/>
-      <c r="BI17" s="8"/>
-      <c r="BJ17" s="8"/>
-      <c r="BK17" s="8"/>
-      <c r="BL17" s="8"/>
-      <c r="BM17" s="8"/>
-      <c r="BN17" s="8"/>
-      <c r="BO17" s="8"/>
-      <c r="BP17" s="8"/>
-      <c r="BQ17" s="8"/>
-      <c r="BR17" s="8"/>
-      <c r="BS17" s="8"/>
-      <c r="BT17" s="8"/>
-      <c r="BU17" s="8"/>
-      <c r="BV17" s="8"/>
-      <c r="BW17" s="8"/>
-      <c r="BX17" s="8"/>
-      <c r="BY17" s="8"/>
-      <c r="BZ17" s="8"/>
-      <c r="CA17" s="8"/>
-      <c r="CB17" s="8"/>
-      <c r="CC17" s="8"/>
-      <c r="CD17" s="8"/>
-      <c r="CE17" s="8"/>
-      <c r="CF17" s="8"/>
-      <c r="CG17" s="8"/>
-      <c r="CH17" s="8"/>
-      <c r="CI17" s="8"/>
-      <c r="CJ17" s="8"/>
-      <c r="CK17" s="8"/>
-      <c r="CL17" s="8"/>
-      <c r="CM17" s="8"/>
-      <c r="CN17" s="8"/>
-      <c r="CO17" s="8"/>
-      <c r="CP17" s="8"/>
-      <c r="CQ17" s="8"/>
-      <c r="CR17" s="8"/>
-      <c r="CS17" s="8"/>
-      <c r="CT17" s="8"/>
-      <c r="CU17" s="8"/>
-      <c r="CV17" s="8"/>
-      <c r="CW17" s="8"/>
-      <c r="CX17" s="8"/>
-      <c r="CY17" s="8"/>
-      <c r="CZ17" s="8"/>
-      <c r="DA17" s="8"/>
-      <c r="DB17" s="8"/>
-      <c r="DC17" s="8"/>
-      <c r="DD17" s="8"/>
-      <c r="DE17" s="8"/>
-      <c r="DF17" s="8"/>
-      <c r="DG17" s="8"/>
-      <c r="DH17" s="8"/>
-      <c r="DI17" s="8"/>
-      <c r="DJ17" s="8"/>
-      <c r="DK17" s="8"/>
-      <c r="DL17" s="8"/>
-      <c r="DM17" s="8"/>
-      <c r="DN17" s="8"/>
-      <c r="DO17" s="8"/>
-      <c r="DP17" s="8"/>
-      <c r="DQ17" s="8"/>
-      <c r="DR17" s="8"/>
-      <c r="DS17" s="8"/>
-      <c r="DT17" s="8"/>
-      <c r="DU17" s="8"/>
-      <c r="DV17" s="8"/>
-      <c r="DW17" s="8"/>
-      <c r="DX17" s="8"/>
-      <c r="DY17" s="8"/>
-      <c r="DZ17" s="8"/>
-      <c r="EA17" s="8"/>
-      <c r="EB17" s="8"/>
-      <c r="EC17" s="8"/>
-      <c r="ED17" s="8"/>
-      <c r="EE17" s="8"/>
-      <c r="EF17" s="8"/>
-      <c r="EG17" s="8"/>
-      <c r="EH17" s="8"/>
-      <c r="EI17" s="8"/>
-      <c r="EJ17" s="8"/>
-      <c r="EK17" s="8"/>
-      <c r="EL17" s="8"/>
-      <c r="EM17" s="8"/>
-      <c r="EN17" s="8"/>
-      <c r="EO17" s="8"/>
-      <c r="EP17" s="8"/>
-      <c r="EQ17" s="8"/>
-      <c r="ER17" s="8"/>
-      <c r="ES17" s="8"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="21"/>
@@ -2781,33 +2842,33 @@
     </row>
     <row r="19" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
@@ -2932,8 +2993,8 @@
       <c r="ES19" s="8"/>
     </row>
     <row r="20" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="14" t="s">
-        <v>48</v>
+      <c r="B20" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="21"/>
@@ -3084,11 +3145,11 @@
       <c r="ES20" s="8"/>
     </row>
     <row r="21" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="52" t="s">
-        <v>53</v>
+      <c r="B21" s="14" t="s">
+        <v>48</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -3235,173 +3296,173 @@
       <c r="ER21" s="8"/>
       <c r="ES21" s="8"/>
     </row>
-    <row r="22" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="40"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
+    <row r="22" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="8"/>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="8"/>
+      <c r="BF22" s="8"/>
+      <c r="BG22" s="8"/>
+      <c r="BH22" s="8"/>
+      <c r="BI22" s="8"/>
+      <c r="BJ22" s="8"/>
+      <c r="BK22" s="8"/>
+      <c r="BL22" s="8"/>
+      <c r="BM22" s="8"/>
+      <c r="BN22" s="8"/>
+      <c r="BO22" s="8"/>
+      <c r="BP22" s="8"/>
+      <c r="BQ22" s="8"/>
+      <c r="BR22" s="8"/>
+      <c r="BS22" s="8"/>
+      <c r="BT22" s="8"/>
+      <c r="BU22" s="8"/>
+      <c r="BV22" s="8"/>
+      <c r="BW22" s="8"/>
+      <c r="BX22" s="8"/>
+      <c r="BY22" s="8"/>
+      <c r="BZ22" s="8"/>
+      <c r="CA22" s="8"/>
+      <c r="CB22" s="8"/>
+      <c r="CC22" s="8"/>
+      <c r="CD22" s="8"/>
+      <c r="CE22" s="8"/>
+      <c r="CF22" s="8"/>
+      <c r="CG22" s="8"/>
+      <c r="CH22" s="8"/>
+      <c r="CI22" s="8"/>
+      <c r="CJ22" s="8"/>
+      <c r="CK22" s="8"/>
+      <c r="CL22" s="8"/>
+      <c r="CM22" s="8"/>
+      <c r="CN22" s="8"/>
+      <c r="CO22" s="8"/>
+      <c r="CP22" s="8"/>
+      <c r="CQ22" s="8"/>
+      <c r="CR22" s="8"/>
+      <c r="CS22" s="8"/>
+      <c r="CT22" s="8"/>
+      <c r="CU22" s="8"/>
+      <c r="CV22" s="8"/>
+      <c r="CW22" s="8"/>
+      <c r="CX22" s="8"/>
+      <c r="CY22" s="8"/>
+      <c r="CZ22" s="8"/>
+      <c r="DA22" s="8"/>
+      <c r="DB22" s="8"/>
+      <c r="DC22" s="8"/>
+      <c r="DD22" s="8"/>
+      <c r="DE22" s="8"/>
+      <c r="DF22" s="8"/>
+      <c r="DG22" s="8"/>
+      <c r="DH22" s="8"/>
+      <c r="DI22" s="8"/>
+      <c r="DJ22" s="8"/>
+      <c r="DK22" s="8"/>
+      <c r="DL22" s="8"/>
+      <c r="DM22" s="8"/>
+      <c r="DN22" s="8"/>
+      <c r="DO22" s="8"/>
+      <c r="DP22" s="8"/>
+      <c r="DQ22" s="8"/>
+      <c r="DR22" s="8"/>
+      <c r="DS22" s="8"/>
+      <c r="DT22" s="8"/>
+      <c r="DU22" s="8"/>
+      <c r="DV22" s="8"/>
+      <c r="DW22" s="8"/>
+      <c r="DX22" s="8"/>
+      <c r="DY22" s="8"/>
+      <c r="DZ22" s="8"/>
+      <c r="EA22" s="8"/>
+      <c r="EB22" s="8"/>
+      <c r="EC22" s="8"/>
+      <c r="ED22" s="8"/>
+      <c r="EE22" s="8"/>
+      <c r="EF22" s="8"/>
+      <c r="EG22" s="8"/>
+      <c r="EH22" s="8"/>
+      <c r="EI22" s="8"/>
+      <c r="EJ22" s="8"/>
+      <c r="EK22" s="8"/>
+      <c r="EL22" s="8"/>
+      <c r="EM22" s="8"/>
+      <c r="EN22" s="8"/>
+      <c r="EO22" s="8"/>
+      <c r="EP22" s="8"/>
+      <c r="EQ22" s="8"/>
+      <c r="ER22" s="8"/>
+      <c r="ES22" s="8"/>
     </row>
     <row r="23" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="40"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+    </row>
+    <row r="24" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-    </row>
-    <row r="24" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
-      <c r="AP24" s="8"/>
-      <c r="AQ24" s="8"/>
-      <c r="AR24" s="8"/>
-      <c r="AS24" s="8"/>
-      <c r="AT24" s="8"/>
-      <c r="AU24" s="8"/>
-      <c r="AV24" s="8"/>
-      <c r="AW24" s="8"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
-      <c r="AZ24" s="8"/>
-      <c r="BA24" s="8"/>
-      <c r="BB24" s="8"/>
-      <c r="BC24" s="8"/>
-      <c r="BD24" s="8"/>
-      <c r="BE24" s="8"/>
-      <c r="BF24" s="8"/>
-      <c r="BG24" s="8"/>
-      <c r="BH24" s="8"/>
-      <c r="BI24" s="8"/>
-      <c r="BJ24" s="8"/>
-      <c r="BK24" s="8"/>
-      <c r="BL24" s="8"/>
-      <c r="BM24" s="8"/>
-      <c r="BN24" s="8"/>
-      <c r="BO24" s="8"/>
-      <c r="BP24" s="8"/>
-      <c r="BQ24" s="8"/>
-      <c r="BR24" s="8"/>
-      <c r="BS24" s="8"/>
-      <c r="BT24" s="8"/>
-      <c r="BU24" s="8"/>
-      <c r="BV24" s="8"/>
-      <c r="BW24" s="8"/>
-      <c r="BX24" s="8"/>
-      <c r="BY24" s="8"/>
-      <c r="BZ24" s="8"/>
-      <c r="CA24" s="8"/>
-      <c r="CB24" s="8"/>
-      <c r="CC24" s="8"/>
-      <c r="CD24" s="8"/>
-      <c r="CE24" s="8"/>
-      <c r="CF24" s="8"/>
-      <c r="CG24" s="8"/>
-      <c r="CH24" s="8"/>
-      <c r="CI24" s="8"/>
-      <c r="CJ24" s="8"/>
-      <c r="CK24" s="8"/>
-      <c r="CL24" s="8"/>
-      <c r="CM24" s="8"/>
-      <c r="CN24" s="8"/>
-      <c r="CO24" s="8"/>
-      <c r="CP24" s="8"/>
-      <c r="CQ24" s="8"/>
-      <c r="CR24" s="8"/>
-      <c r="CS24" s="8"/>
-      <c r="CT24" s="8"/>
-      <c r="CU24" s="8"/>
-      <c r="CV24" s="8"/>
-      <c r="CW24" s="8"/>
-      <c r="CX24" s="8"/>
-      <c r="CY24" s="8"/>
-      <c r="CZ24" s="8"/>
-      <c r="DA24" s="8"/>
-      <c r="DB24" s="8"/>
-      <c r="DC24" s="8"/>
-      <c r="DD24" s="8"/>
-      <c r="DE24" s="8"/>
-      <c r="DF24" s="8"/>
-      <c r="DG24" s="8"/>
-      <c r="DH24" s="8"/>
-      <c r="DI24" s="8"/>
-      <c r="DJ24" s="8"/>
-      <c r="DK24" s="8"/>
-      <c r="DL24" s="8"/>
-      <c r="DM24" s="8"/>
-      <c r="DN24" s="8"/>
-      <c r="DO24" s="8"/>
-      <c r="DP24" s="8"/>
-      <c r="DQ24" s="8"/>
-      <c r="DR24" s="8"/>
-      <c r="DS24" s="8"/>
-      <c r="DT24" s="8"/>
-      <c r="DU24" s="8"/>
-      <c r="DV24" s="8"/>
-      <c r="DW24" s="8"/>
-      <c r="DX24" s="8"/>
-      <c r="DY24" s="8"/>
-      <c r="DZ24" s="8"/>
-      <c r="EA24" s="8"/>
-      <c r="EB24" s="8"/>
-      <c r="EC24" s="8"/>
-      <c r="ED24" s="8"/>
-      <c r="EE24" s="8"/>
-      <c r="EF24" s="8"/>
-      <c r="EG24" s="8"/>
-      <c r="EH24" s="8"/>
-      <c r="EI24" s="8"/>
-      <c r="EJ24" s="8"/>
-      <c r="EK24" s="8"/>
-      <c r="EL24" s="8"/>
-      <c r="EM24" s="8"/>
-      <c r="EN24" s="8"/>
-      <c r="EO24" s="8"/>
-      <c r="EP24" s="8"/>
-      <c r="EQ24" s="8"/>
-      <c r="ER24" s="8"/>
-      <c r="ES24" s="8"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
     </row>
     <row r="25" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="21"/>
@@ -3553,33 +3614,33 @@
     </row>
     <row r="26" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
@@ -3704,8 +3765,8 @@
       <c r="ES26" s="8"/>
     </row>
     <row r="27" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="55" t="s">
-        <v>54</v>
+      <c r="B27" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="21"/>
@@ -3857,10 +3918,10 @@
     </row>
     <row r="28" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -4007,10 +4068,12 @@
       <c r="ER28" s="8"/>
       <c r="ES28" s="8"/>
     </row>
-    <row r="29" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="57"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="21"/>
+    <row r="29" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -4157,171 +4220,169 @@
       <c r="ER29" s="8"/>
       <c r="ES29" s="8"/>
     </row>
-    <row r="30" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="33" t="s">
+    <row r="30" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="57"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="8"/>
+      <c r="AZ30" s="8"/>
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+      <c r="BC30" s="8"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="8"/>
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="8"/>
+      <c r="BI30" s="8"/>
+      <c r="BJ30" s="8"/>
+      <c r="BK30" s="8"/>
+      <c r="BL30" s="8"/>
+      <c r="BM30" s="8"/>
+      <c r="BN30" s="8"/>
+      <c r="BO30" s="8"/>
+      <c r="BP30" s="8"/>
+      <c r="BQ30" s="8"/>
+      <c r="BR30" s="8"/>
+      <c r="BS30" s="8"/>
+      <c r="BT30" s="8"/>
+      <c r="BU30" s="8"/>
+      <c r="BV30" s="8"/>
+      <c r="BW30" s="8"/>
+      <c r="BX30" s="8"/>
+      <c r="BY30" s="8"/>
+      <c r="BZ30" s="8"/>
+      <c r="CA30" s="8"/>
+      <c r="CB30" s="8"/>
+      <c r="CC30" s="8"/>
+      <c r="CD30" s="8"/>
+      <c r="CE30" s="8"/>
+      <c r="CF30" s="8"/>
+      <c r="CG30" s="8"/>
+      <c r="CH30" s="8"/>
+      <c r="CI30" s="8"/>
+      <c r="CJ30" s="8"/>
+      <c r="CK30" s="8"/>
+      <c r="CL30" s="8"/>
+      <c r="CM30" s="8"/>
+      <c r="CN30" s="8"/>
+      <c r="CO30" s="8"/>
+      <c r="CP30" s="8"/>
+      <c r="CQ30" s="8"/>
+      <c r="CR30" s="8"/>
+      <c r="CS30" s="8"/>
+      <c r="CT30" s="8"/>
+      <c r="CU30" s="8"/>
+      <c r="CV30" s="8"/>
+      <c r="CW30" s="8"/>
+      <c r="CX30" s="8"/>
+      <c r="CY30" s="8"/>
+      <c r="CZ30" s="8"/>
+      <c r="DA30" s="8"/>
+      <c r="DB30" s="8"/>
+      <c r="DC30" s="8"/>
+      <c r="DD30" s="8"/>
+      <c r="DE30" s="8"/>
+      <c r="DF30" s="8"/>
+      <c r="DG30" s="8"/>
+      <c r="DH30" s="8"/>
+      <c r="DI30" s="8"/>
+      <c r="DJ30" s="8"/>
+      <c r="DK30" s="8"/>
+      <c r="DL30" s="8"/>
+      <c r="DM30" s="8"/>
+      <c r="DN30" s="8"/>
+      <c r="DO30" s="8"/>
+      <c r="DP30" s="8"/>
+      <c r="DQ30" s="8"/>
+      <c r="DR30" s="8"/>
+      <c r="DS30" s="8"/>
+      <c r="DT30" s="8"/>
+      <c r="DU30" s="8"/>
+      <c r="DV30" s="8"/>
+      <c r="DW30" s="8"/>
+      <c r="DX30" s="8"/>
+      <c r="DY30" s="8"/>
+      <c r="DZ30" s="8"/>
+      <c r="EA30" s="8"/>
+      <c r="EB30" s="8"/>
+      <c r="EC30" s="8"/>
+      <c r="ED30" s="8"/>
+      <c r="EE30" s="8"/>
+      <c r="EF30" s="8"/>
+      <c r="EG30" s="8"/>
+      <c r="EH30" s="8"/>
+      <c r="EI30" s="8"/>
+      <c r="EJ30" s="8"/>
+      <c r="EK30" s="8"/>
+      <c r="EL30" s="8"/>
+      <c r="EM30" s="8"/>
+      <c r="EN30" s="8"/>
+      <c r="EO30" s="8"/>
+      <c r="EP30" s="8"/>
+      <c r="EQ30" s="8"/>
+      <c r="ER30" s="8"/>
+      <c r="ES30" s="8"/>
+    </row>
+    <row r="31" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="30" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
-      <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="8"/>
-      <c r="AO31" s="8"/>
-      <c r="AP31" s="8"/>
-      <c r="AQ31" s="8"/>
-      <c r="AR31" s="8"/>
-      <c r="AS31" s="8"/>
-      <c r="AT31" s="8"/>
-      <c r="AU31" s="8"/>
-      <c r="AV31" s="8"/>
-      <c r="AW31" s="8"/>
-      <c r="AX31" s="8"/>
-      <c r="AY31" s="8"/>
-      <c r="AZ31" s="8"/>
-      <c r="BA31" s="8"/>
-      <c r="BB31" s="8"/>
-      <c r="BC31" s="8"/>
-      <c r="BD31" s="8"/>
-      <c r="BE31" s="8"/>
-      <c r="BF31" s="8"/>
-      <c r="BG31" s="8"/>
-      <c r="BH31" s="8"/>
-      <c r="BI31" s="8"/>
-      <c r="BJ31" s="8"/>
-      <c r="BK31" s="8"/>
-      <c r="BL31" s="8"/>
-      <c r="BM31" s="8"/>
-      <c r="BN31" s="8"/>
-      <c r="BO31" s="8"/>
-      <c r="BP31" s="8"/>
-      <c r="BQ31" s="8"/>
-      <c r="BR31" s="8"/>
-      <c r="BS31" s="8"/>
-      <c r="BT31" s="8"/>
-      <c r="BU31" s="8"/>
-      <c r="BV31" s="8"/>
-      <c r="BW31" s="8"/>
-      <c r="BX31" s="8"/>
-      <c r="BY31" s="8"/>
-      <c r="BZ31" s="8"/>
-      <c r="CA31" s="8"/>
-      <c r="CB31" s="8"/>
-      <c r="CC31" s="8"/>
-      <c r="CD31" s="8"/>
-      <c r="CE31" s="8"/>
-      <c r="CF31" s="8"/>
-      <c r="CG31" s="8"/>
-      <c r="CH31" s="8"/>
-      <c r="CI31" s="8"/>
-      <c r="CJ31" s="8"/>
-      <c r="CK31" s="8"/>
-      <c r="CL31" s="8"/>
-      <c r="CM31" s="8"/>
-      <c r="CN31" s="8"/>
-      <c r="CO31" s="8"/>
-      <c r="CP31" s="8"/>
-      <c r="CQ31" s="8"/>
-      <c r="CR31" s="8"/>
-      <c r="CS31" s="8"/>
-      <c r="CT31" s="8"/>
-      <c r="CU31" s="8"/>
-      <c r="CV31" s="8"/>
-      <c r="CW31" s="8"/>
-      <c r="CX31" s="8"/>
-      <c r="CY31" s="8"/>
-      <c r="CZ31" s="8"/>
-      <c r="DA31" s="8"/>
-      <c r="DB31" s="8"/>
-      <c r="DC31" s="8"/>
-      <c r="DD31" s="8"/>
-      <c r="DE31" s="8"/>
-      <c r="DF31" s="8"/>
-      <c r="DG31" s="8"/>
-      <c r="DH31" s="8"/>
-      <c r="DI31" s="8"/>
-      <c r="DJ31" s="8"/>
-      <c r="DK31" s="8"/>
-      <c r="DL31" s="8"/>
-      <c r="DM31" s="8"/>
-      <c r="DN31" s="8"/>
-      <c r="DO31" s="8"/>
-      <c r="DP31" s="8"/>
-      <c r="DQ31" s="8"/>
-      <c r="DR31" s="8"/>
-      <c r="DS31" s="8"/>
-      <c r="DT31" s="8"/>
-      <c r="DU31" s="8"/>
-      <c r="DV31" s="8"/>
-      <c r="DW31" s="8"/>
-      <c r="DX31" s="8"/>
-      <c r="DY31" s="8"/>
-      <c r="DZ31" s="8"/>
-      <c r="EA31" s="8"/>
-      <c r="EB31" s="8"/>
-      <c r="EC31" s="8"/>
-      <c r="ED31" s="8"/>
-      <c r="EE31" s="8"/>
-      <c r="EF31" s="8"/>
-      <c r="EG31" s="8"/>
-      <c r="EH31" s="8"/>
-      <c r="EI31" s="8"/>
-      <c r="EJ31" s="8"/>
-      <c r="EK31" s="8"/>
-      <c r="EL31" s="8"/>
-      <c r="EM31" s="8"/>
-      <c r="EN31" s="8"/>
-      <c r="EO31" s="8"/>
-      <c r="EP31" s="8"/>
-      <c r="EQ31" s="8"/>
-      <c r="ER31" s="8"/>
-      <c r="ES31" s="8"/>
-    </row>
-    <row r="32" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="21"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -4470,7 +4531,7 @@
     </row>
     <row r="33" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="21"/>
@@ -4622,7 +4683,7 @@
     </row>
     <row r="34" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="21"/>
@@ -4772,203 +4833,203 @@
       <c r="ER34" s="8"/>
       <c r="ES34" s="8"/>
     </row>
-    <row r="35" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="41"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
+    <row r="35" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="8"/>
+      <c r="AR35" s="8"/>
+      <c r="AS35" s="8"/>
+      <c r="AT35" s="8"/>
+      <c r="AU35" s="8"/>
+      <c r="AV35" s="8"/>
+      <c r="AW35" s="8"/>
+      <c r="AX35" s="8"/>
+      <c r="AY35" s="8"/>
+      <c r="AZ35" s="8"/>
+      <c r="BA35" s="8"/>
+      <c r="BB35" s="8"/>
+      <c r="BC35" s="8"/>
+      <c r="BD35" s="8"/>
+      <c r="BE35" s="8"/>
+      <c r="BF35" s="8"/>
+      <c r="BG35" s="8"/>
+      <c r="BH35" s="8"/>
+      <c r="BI35" s="8"/>
+      <c r="BJ35" s="8"/>
+      <c r="BK35" s="8"/>
+      <c r="BL35" s="8"/>
+      <c r="BM35" s="8"/>
+      <c r="BN35" s="8"/>
+      <c r="BO35" s="8"/>
+      <c r="BP35" s="8"/>
+      <c r="BQ35" s="8"/>
+      <c r="BR35" s="8"/>
+      <c r="BS35" s="8"/>
+      <c r="BT35" s="8"/>
+      <c r="BU35" s="8"/>
+      <c r="BV35" s="8"/>
+      <c r="BW35" s="8"/>
+      <c r="BX35" s="8"/>
+      <c r="BY35" s="8"/>
+      <c r="BZ35" s="8"/>
+      <c r="CA35" s="8"/>
+      <c r="CB35" s="8"/>
+      <c r="CC35" s="8"/>
+      <c r="CD35" s="8"/>
+      <c r="CE35" s="8"/>
+      <c r="CF35" s="8"/>
+      <c r="CG35" s="8"/>
+      <c r="CH35" s="8"/>
+      <c r="CI35" s="8"/>
+      <c r="CJ35" s="8"/>
+      <c r="CK35" s="8"/>
+      <c r="CL35" s="8"/>
+      <c r="CM35" s="8"/>
+      <c r="CN35" s="8"/>
+      <c r="CO35" s="8"/>
+      <c r="CP35" s="8"/>
+      <c r="CQ35" s="8"/>
+      <c r="CR35" s="8"/>
+      <c r="CS35" s="8"/>
+      <c r="CT35" s="8"/>
+      <c r="CU35" s="8"/>
+      <c r="CV35" s="8"/>
+      <c r="CW35" s="8"/>
+      <c r="CX35" s="8"/>
+      <c r="CY35" s="8"/>
+      <c r="CZ35" s="8"/>
+      <c r="DA35" s="8"/>
+      <c r="DB35" s="8"/>
+      <c r="DC35" s="8"/>
+      <c r="DD35" s="8"/>
+      <c r="DE35" s="8"/>
+      <c r="DF35" s="8"/>
+      <c r="DG35" s="8"/>
+      <c r="DH35" s="8"/>
+      <c r="DI35" s="8"/>
+      <c r="DJ35" s="8"/>
+      <c r="DK35" s="8"/>
+      <c r="DL35" s="8"/>
+      <c r="DM35" s="8"/>
+      <c r="DN35" s="8"/>
+      <c r="DO35" s="8"/>
+      <c r="DP35" s="8"/>
+      <c r="DQ35" s="8"/>
+      <c r="DR35" s="8"/>
+      <c r="DS35" s="8"/>
+      <c r="DT35" s="8"/>
+      <c r="DU35" s="8"/>
+      <c r="DV35" s="8"/>
+      <c r="DW35" s="8"/>
+      <c r="DX35" s="8"/>
+      <c r="DY35" s="8"/>
+      <c r="DZ35" s="8"/>
+      <c r="EA35" s="8"/>
+      <c r="EB35" s="8"/>
+      <c r="EC35" s="8"/>
+      <c r="ED35" s="8"/>
+      <c r="EE35" s="8"/>
+      <c r="EF35" s="8"/>
+      <c r="EG35" s="8"/>
+      <c r="EH35" s="8"/>
+      <c r="EI35" s="8"/>
+      <c r="EJ35" s="8"/>
+      <c r="EK35" s="8"/>
+      <c r="EL35" s="8"/>
+      <c r="EM35" s="8"/>
+      <c r="EN35" s="8"/>
+      <c r="EO35" s="8"/>
+      <c r="EP35" s="8"/>
+      <c r="EQ35" s="8"/>
+      <c r="ER35" s="8"/>
+      <c r="ES35" s="8"/>
     </row>
     <row r="36" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+    </row>
+    <row r="37" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-    </row>
-    <row r="37" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="42" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
-    </row>
-    <row r="38" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="8"/>
-      <c r="AH38" s="8"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="8"/>
-      <c r="AM38" s="8"/>
-      <c r="AN38" s="8"/>
-      <c r="AO38" s="8"/>
-      <c r="AP38" s="8"/>
-      <c r="AQ38" s="8"/>
-      <c r="AR38" s="8"/>
-      <c r="AS38" s="8"/>
-      <c r="AT38" s="8"/>
-      <c r="AU38" s="8"/>
-      <c r="AV38" s="8"/>
-      <c r="AW38" s="8"/>
-      <c r="AX38" s="8"/>
-      <c r="AY38" s="8"/>
-      <c r="AZ38" s="8"/>
-      <c r="BA38" s="8"/>
-      <c r="BB38" s="8"/>
-      <c r="BC38" s="8"/>
-      <c r="BD38" s="8"/>
-      <c r="BE38" s="8"/>
-      <c r="BF38" s="8"/>
-      <c r="BG38" s="8"/>
-      <c r="BH38" s="8"/>
-      <c r="BI38" s="8"/>
-      <c r="BJ38" s="8"/>
-      <c r="BK38" s="8"/>
-      <c r="BL38" s="8"/>
-      <c r="BM38" s="8"/>
-      <c r="BN38" s="8"/>
-      <c r="BO38" s="8"/>
-      <c r="BP38" s="8"/>
-      <c r="BQ38" s="8"/>
-      <c r="BR38" s="8"/>
-      <c r="BS38" s="8"/>
-      <c r="BT38" s="8"/>
-      <c r="BU38" s="8"/>
-      <c r="BV38" s="8"/>
-      <c r="BW38" s="8"/>
-      <c r="BX38" s="8"/>
-      <c r="BY38" s="8"/>
-      <c r="BZ38" s="8"/>
-      <c r="CA38" s="8"/>
-      <c r="CB38" s="8"/>
-      <c r="CC38" s="8"/>
-      <c r="CD38" s="8"/>
-      <c r="CE38" s="8"/>
-      <c r="CF38" s="8"/>
-      <c r="CG38" s="8"/>
-      <c r="CH38" s="8"/>
-      <c r="CI38" s="8"/>
-      <c r="CJ38" s="8"/>
-      <c r="CK38" s="8"/>
-      <c r="CL38" s="8"/>
-      <c r="CM38" s="8"/>
-      <c r="CN38" s="8"/>
-      <c r="CO38" s="8"/>
-      <c r="CP38" s="8"/>
-      <c r="CQ38" s="8"/>
-      <c r="CR38" s="8"/>
-      <c r="CS38" s="8"/>
-      <c r="CT38" s="8"/>
-      <c r="CU38" s="8"/>
-      <c r="CV38" s="8"/>
-      <c r="CW38" s="8"/>
-      <c r="CX38" s="8"/>
-      <c r="CY38" s="8"/>
-      <c r="CZ38" s="8"/>
-      <c r="DA38" s="8"/>
-      <c r="DB38" s="8"/>
-      <c r="DC38" s="8"/>
-      <c r="DD38" s="8"/>
-      <c r="DE38" s="8"/>
-      <c r="DF38" s="8"/>
-      <c r="DG38" s="8"/>
-      <c r="DH38" s="8"/>
-      <c r="DI38" s="8"/>
-      <c r="DJ38" s="8"/>
-      <c r="DK38" s="8"/>
-      <c r="DL38" s="8"/>
-      <c r="DM38" s="8"/>
-      <c r="DN38" s="8"/>
-      <c r="DO38" s="8"/>
-      <c r="DP38" s="8"/>
-      <c r="DQ38" s="8"/>
-      <c r="DR38" s="8"/>
-      <c r="DS38" s="8"/>
-      <c r="DT38" s="8"/>
-      <c r="DU38" s="8"/>
-      <c r="DV38" s="8"/>
-      <c r="DW38" s="8"/>
-      <c r="DX38" s="8"/>
-      <c r="DY38" s="8"/>
-      <c r="DZ38" s="8"/>
-      <c r="EA38" s="8"/>
-      <c r="EB38" s="8"/>
-      <c r="EC38" s="8"/>
-      <c r="ED38" s="8"/>
-      <c r="EE38" s="8"/>
-      <c r="EF38" s="8"/>
-      <c r="EG38" s="8"/>
-      <c r="EH38" s="8"/>
-      <c r="EI38" s="8"/>
-      <c r="EJ38" s="8"/>
-      <c r="EK38" s="8"/>
-      <c r="EL38" s="8"/>
-      <c r="EM38" s="8"/>
-      <c r="EN38" s="8"/>
-      <c r="EO38" s="8"/>
-      <c r="EP38" s="8"/>
-      <c r="EQ38" s="8"/>
-      <c r="ER38" s="8"/>
-      <c r="ES38" s="8"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
     </row>
     <row r="39" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="21"/>
@@ -5120,7 +5181,7 @@
     </row>
     <row r="40" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="21"/>
@@ -5272,7 +5333,7 @@
     </row>
     <row r="41" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="21"/>
@@ -5422,173 +5483,173 @@
       <c r="ER41" s="8"/>
       <c r="ES41" s="8"/>
     </row>
-    <row r="42" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="16"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="22"/>
+    <row r="42" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+      <c r="AP42" s="8"/>
+      <c r="AQ42" s="8"/>
+      <c r="AR42" s="8"/>
+      <c r="AS42" s="8"/>
+      <c r="AT42" s="8"/>
+      <c r="AU42" s="8"/>
+      <c r="AV42" s="8"/>
+      <c r="AW42" s="8"/>
+      <c r="AX42" s="8"/>
+      <c r="AY42" s="8"/>
+      <c r="AZ42" s="8"/>
+      <c r="BA42" s="8"/>
+      <c r="BB42" s="8"/>
+      <c r="BC42" s="8"/>
+      <c r="BD42" s="8"/>
+      <c r="BE42" s="8"/>
+      <c r="BF42" s="8"/>
+      <c r="BG42" s="8"/>
+      <c r="BH42" s="8"/>
+      <c r="BI42" s="8"/>
+      <c r="BJ42" s="8"/>
+      <c r="BK42" s="8"/>
+      <c r="BL42" s="8"/>
+      <c r="BM42" s="8"/>
+      <c r="BN42" s="8"/>
+      <c r="BO42" s="8"/>
+      <c r="BP42" s="8"/>
+      <c r="BQ42" s="8"/>
+      <c r="BR42" s="8"/>
+      <c r="BS42" s="8"/>
+      <c r="BT42" s="8"/>
+      <c r="BU42" s="8"/>
+      <c r="BV42" s="8"/>
+      <c r="BW42" s="8"/>
+      <c r="BX42" s="8"/>
+      <c r="BY42" s="8"/>
+      <c r="BZ42" s="8"/>
+      <c r="CA42" s="8"/>
+      <c r="CB42" s="8"/>
+      <c r="CC42" s="8"/>
+      <c r="CD42" s="8"/>
+      <c r="CE42" s="8"/>
+      <c r="CF42" s="8"/>
+      <c r="CG42" s="8"/>
+      <c r="CH42" s="8"/>
+      <c r="CI42" s="8"/>
+      <c r="CJ42" s="8"/>
+      <c r="CK42" s="8"/>
+      <c r="CL42" s="8"/>
+      <c r="CM42" s="8"/>
+      <c r="CN42" s="8"/>
+      <c r="CO42" s="8"/>
+      <c r="CP42" s="8"/>
+      <c r="CQ42" s="8"/>
+      <c r="CR42" s="8"/>
+      <c r="CS42" s="8"/>
+      <c r="CT42" s="8"/>
+      <c r="CU42" s="8"/>
+      <c r="CV42" s="8"/>
+      <c r="CW42" s="8"/>
+      <c r="CX42" s="8"/>
+      <c r="CY42" s="8"/>
+      <c r="CZ42" s="8"/>
+      <c r="DA42" s="8"/>
+      <c r="DB42" s="8"/>
+      <c r="DC42" s="8"/>
+      <c r="DD42" s="8"/>
+      <c r="DE42" s="8"/>
+      <c r="DF42" s="8"/>
+      <c r="DG42" s="8"/>
+      <c r="DH42" s="8"/>
+      <c r="DI42" s="8"/>
+      <c r="DJ42" s="8"/>
+      <c r="DK42" s="8"/>
+      <c r="DL42" s="8"/>
+      <c r="DM42" s="8"/>
+      <c r="DN42" s="8"/>
+      <c r="DO42" s="8"/>
+      <c r="DP42" s="8"/>
+      <c r="DQ42" s="8"/>
+      <c r="DR42" s="8"/>
+      <c r="DS42" s="8"/>
+      <c r="DT42" s="8"/>
+      <c r="DU42" s="8"/>
+      <c r="DV42" s="8"/>
+      <c r="DW42" s="8"/>
+      <c r="DX42" s="8"/>
+      <c r="DY42" s="8"/>
+      <c r="DZ42" s="8"/>
+      <c r="EA42" s="8"/>
+      <c r="EB42" s="8"/>
+      <c r="EC42" s="8"/>
+      <c r="ED42" s="8"/>
+      <c r="EE42" s="8"/>
+      <c r="EF42" s="8"/>
+      <c r="EG42" s="8"/>
+      <c r="EH42" s="8"/>
+      <c r="EI42" s="8"/>
+      <c r="EJ42" s="8"/>
+      <c r="EK42" s="8"/>
+      <c r="EL42" s="8"/>
+      <c r="EM42" s="8"/>
+      <c r="EN42" s="8"/>
+      <c r="EO42" s="8"/>
+      <c r="EP42" s="8"/>
+      <c r="EQ42" s="8"/>
+      <c r="ER42" s="8"/>
+      <c r="ES42" s="8"/>
     </row>
     <row r="43" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="22"/>
+    </row>
+    <row r="44" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="22"/>
-    </row>
-    <row r="44" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="8"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="8"/>
-      <c r="AK44" s="8"/>
-      <c r="AL44" s="8"/>
-      <c r="AM44" s="8"/>
-      <c r="AN44" s="8"/>
-      <c r="AO44" s="8"/>
-      <c r="AP44" s="8"/>
-      <c r="AQ44" s="8"/>
-      <c r="AR44" s="8"/>
-      <c r="AS44" s="8"/>
-      <c r="AT44" s="8"/>
-      <c r="AU44" s="8"/>
-      <c r="AV44" s="8"/>
-      <c r="AW44" s="8"/>
-      <c r="AX44" s="8"/>
-      <c r="AY44" s="8"/>
-      <c r="AZ44" s="8"/>
-      <c r="BA44" s="8"/>
-      <c r="BB44" s="8"/>
-      <c r="BC44" s="8"/>
-      <c r="BD44" s="8"/>
-      <c r="BE44" s="8"/>
-      <c r="BF44" s="8"/>
-      <c r="BG44" s="8"/>
-      <c r="BH44" s="8"/>
-      <c r="BI44" s="8"/>
-      <c r="BJ44" s="8"/>
-      <c r="BK44" s="8"/>
-      <c r="BL44" s="8"/>
-      <c r="BM44" s="8"/>
-      <c r="BN44" s="8"/>
-      <c r="BO44" s="8"/>
-      <c r="BP44" s="8"/>
-      <c r="BQ44" s="8"/>
-      <c r="BR44" s="8"/>
-      <c r="BS44" s="8"/>
-      <c r="BT44" s="8"/>
-      <c r="BU44" s="8"/>
-      <c r="BV44" s="8"/>
-      <c r="BW44" s="8"/>
-      <c r="BX44" s="8"/>
-      <c r="BY44" s="8"/>
-      <c r="BZ44" s="8"/>
-      <c r="CA44" s="8"/>
-      <c r="CB44" s="8"/>
-      <c r="CC44" s="8"/>
-      <c r="CD44" s="8"/>
-      <c r="CE44" s="8"/>
-      <c r="CF44" s="8"/>
-      <c r="CG44" s="8"/>
-      <c r="CH44" s="8"/>
-      <c r="CI44" s="8"/>
-      <c r="CJ44" s="8"/>
-      <c r="CK44" s="8"/>
-      <c r="CL44" s="8"/>
-      <c r="CM44" s="8"/>
-      <c r="CN44" s="8"/>
-      <c r="CO44" s="8"/>
-      <c r="CP44" s="8"/>
-      <c r="CQ44" s="8"/>
-      <c r="CR44" s="8"/>
-      <c r="CS44" s="8"/>
-      <c r="CT44" s="8"/>
-      <c r="CU44" s="8"/>
-      <c r="CV44" s="8"/>
-      <c r="CW44" s="8"/>
-      <c r="CX44" s="8"/>
-      <c r="CY44" s="8"/>
-      <c r="CZ44" s="8"/>
-      <c r="DA44" s="8"/>
-      <c r="DB44" s="8"/>
-      <c r="DC44" s="8"/>
-      <c r="DD44" s="8"/>
-      <c r="DE44" s="8"/>
-      <c r="DF44" s="8"/>
-      <c r="DG44" s="8"/>
-      <c r="DH44" s="8"/>
-      <c r="DI44" s="8"/>
-      <c r="DJ44" s="8"/>
-      <c r="DK44" s="8"/>
-      <c r="DL44" s="8"/>
-      <c r="DM44" s="8"/>
-      <c r="DN44" s="8"/>
-      <c r="DO44" s="8"/>
-      <c r="DP44" s="8"/>
-      <c r="DQ44" s="8"/>
-      <c r="DR44" s="8"/>
-      <c r="DS44" s="8"/>
-      <c r="DT44" s="8"/>
-      <c r="DU44" s="8"/>
-      <c r="DV44" s="8"/>
-      <c r="DW44" s="8"/>
-      <c r="DX44" s="8"/>
-      <c r="DY44" s="8"/>
-      <c r="DZ44" s="8"/>
-      <c r="EA44" s="8"/>
-      <c r="EB44" s="8"/>
-      <c r="EC44" s="8"/>
-      <c r="ED44" s="8"/>
-      <c r="EE44" s="8"/>
-      <c r="EF44" s="8"/>
-      <c r="EG44" s="8"/>
-      <c r="EH44" s="8"/>
-      <c r="EI44" s="8"/>
-      <c r="EJ44" s="8"/>
-      <c r="EK44" s="8"/>
-      <c r="EL44" s="8"/>
-      <c r="EM44" s="8"/>
-      <c r="EN44" s="8"/>
-      <c r="EO44" s="8"/>
-      <c r="EP44" s="8"/>
-      <c r="EQ44" s="8"/>
-      <c r="ER44" s="8"/>
-      <c r="ES44" s="8"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="21"/>
@@ -5738,173 +5799,173 @@
       <c r="ER45" s="8"/>
       <c r="ES45" s="8"/>
     </row>
-    <row r="46" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="15"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="22"/>
+    <row r="46" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8"/>
+      <c r="AO46" s="8"/>
+      <c r="AP46" s="8"/>
+      <c r="AQ46" s="8"/>
+      <c r="AR46" s="8"/>
+      <c r="AS46" s="8"/>
+      <c r="AT46" s="8"/>
+      <c r="AU46" s="8"/>
+      <c r="AV46" s="8"/>
+      <c r="AW46" s="8"/>
+      <c r="AX46" s="8"/>
+      <c r="AY46" s="8"/>
+      <c r="AZ46" s="8"/>
+      <c r="BA46" s="8"/>
+      <c r="BB46" s="8"/>
+      <c r="BC46" s="8"/>
+      <c r="BD46" s="8"/>
+      <c r="BE46" s="8"/>
+      <c r="BF46" s="8"/>
+      <c r="BG46" s="8"/>
+      <c r="BH46" s="8"/>
+      <c r="BI46" s="8"/>
+      <c r="BJ46" s="8"/>
+      <c r="BK46" s="8"/>
+      <c r="BL46" s="8"/>
+      <c r="BM46" s="8"/>
+      <c r="BN46" s="8"/>
+      <c r="BO46" s="8"/>
+      <c r="BP46" s="8"/>
+      <c r="BQ46" s="8"/>
+      <c r="BR46" s="8"/>
+      <c r="BS46" s="8"/>
+      <c r="BT46" s="8"/>
+      <c r="BU46" s="8"/>
+      <c r="BV46" s="8"/>
+      <c r="BW46" s="8"/>
+      <c r="BX46" s="8"/>
+      <c r="BY46" s="8"/>
+      <c r="BZ46" s="8"/>
+      <c r="CA46" s="8"/>
+      <c r="CB46" s="8"/>
+      <c r="CC46" s="8"/>
+      <c r="CD46" s="8"/>
+      <c r="CE46" s="8"/>
+      <c r="CF46" s="8"/>
+      <c r="CG46" s="8"/>
+      <c r="CH46" s="8"/>
+      <c r="CI46" s="8"/>
+      <c r="CJ46" s="8"/>
+      <c r="CK46" s="8"/>
+      <c r="CL46" s="8"/>
+      <c r="CM46" s="8"/>
+      <c r="CN46" s="8"/>
+      <c r="CO46" s="8"/>
+      <c r="CP46" s="8"/>
+      <c r="CQ46" s="8"/>
+      <c r="CR46" s="8"/>
+      <c r="CS46" s="8"/>
+      <c r="CT46" s="8"/>
+      <c r="CU46" s="8"/>
+      <c r="CV46" s="8"/>
+      <c r="CW46" s="8"/>
+      <c r="CX46" s="8"/>
+      <c r="CY46" s="8"/>
+      <c r="CZ46" s="8"/>
+      <c r="DA46" s="8"/>
+      <c r="DB46" s="8"/>
+      <c r="DC46" s="8"/>
+      <c r="DD46" s="8"/>
+      <c r="DE46" s="8"/>
+      <c r="DF46" s="8"/>
+      <c r="DG46" s="8"/>
+      <c r="DH46" s="8"/>
+      <c r="DI46" s="8"/>
+      <c r="DJ46" s="8"/>
+      <c r="DK46" s="8"/>
+      <c r="DL46" s="8"/>
+      <c r="DM46" s="8"/>
+      <c r="DN46" s="8"/>
+      <c r="DO46" s="8"/>
+      <c r="DP46" s="8"/>
+      <c r="DQ46" s="8"/>
+      <c r="DR46" s="8"/>
+      <c r="DS46" s="8"/>
+      <c r="DT46" s="8"/>
+      <c r="DU46" s="8"/>
+      <c r="DV46" s="8"/>
+      <c r="DW46" s="8"/>
+      <c r="DX46" s="8"/>
+      <c r="DY46" s="8"/>
+      <c r="DZ46" s="8"/>
+      <c r="EA46" s="8"/>
+      <c r="EB46" s="8"/>
+      <c r="EC46" s="8"/>
+      <c r="ED46" s="8"/>
+      <c r="EE46" s="8"/>
+      <c r="EF46" s="8"/>
+      <c r="EG46" s="8"/>
+      <c r="EH46" s="8"/>
+      <c r="EI46" s="8"/>
+      <c r="EJ46" s="8"/>
+      <c r="EK46" s="8"/>
+      <c r="EL46" s="8"/>
+      <c r="EM46" s="8"/>
+      <c r="EN46" s="8"/>
+      <c r="EO46" s="8"/>
+      <c r="EP46" s="8"/>
+      <c r="EQ46" s="8"/>
+      <c r="ER46" s="8"/>
+      <c r="ES46" s="8"/>
     </row>
     <row r="47" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="15"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="22"/>
+    </row>
+    <row r="48" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="22"/>
-    </row>
-    <row r="48" spans="2:149" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="2:149" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-      <c r="AG48" s="8"/>
-      <c r="AH48" s="8"/>
-      <c r="AI48" s="8"/>
-      <c r="AJ48" s="8"/>
-      <c r="AK48" s="8"/>
-      <c r="AL48" s="8"/>
-      <c r="AM48" s="8"/>
-      <c r="AN48" s="8"/>
-      <c r="AO48" s="8"/>
-      <c r="AP48" s="8"/>
-      <c r="AQ48" s="8"/>
-      <c r="AR48" s="8"/>
-      <c r="AS48" s="8"/>
-      <c r="AT48" s="8"/>
-      <c r="AU48" s="8"/>
-      <c r="AV48" s="8"/>
-      <c r="AW48" s="8"/>
-      <c r="AX48" s="8"/>
-      <c r="AY48" s="8"/>
-      <c r="AZ48" s="8"/>
-      <c r="BA48" s="8"/>
-      <c r="BB48" s="8"/>
-      <c r="BC48" s="8"/>
-      <c r="BD48" s="8"/>
-      <c r="BE48" s="8"/>
-      <c r="BF48" s="8"/>
-      <c r="BG48" s="8"/>
-      <c r="BH48" s="8"/>
-      <c r="BI48" s="8"/>
-      <c r="BJ48" s="8"/>
-      <c r="BK48" s="8"/>
-      <c r="BL48" s="8"/>
-      <c r="BM48" s="8"/>
-      <c r="BN48" s="8"/>
-      <c r="BO48" s="8"/>
-      <c r="BP48" s="8"/>
-      <c r="BQ48" s="8"/>
-      <c r="BR48" s="8"/>
-      <c r="BS48" s="8"/>
-      <c r="BT48" s="8"/>
-      <c r="BU48" s="8"/>
-      <c r="BV48" s="8"/>
-      <c r="BW48" s="8"/>
-      <c r="BX48" s="8"/>
-      <c r="BY48" s="8"/>
-      <c r="BZ48" s="8"/>
-      <c r="CA48" s="8"/>
-      <c r="CB48" s="8"/>
-      <c r="CC48" s="8"/>
-      <c r="CD48" s="8"/>
-      <c r="CE48" s="8"/>
-      <c r="CF48" s="8"/>
-      <c r="CG48" s="8"/>
-      <c r="CH48" s="8"/>
-      <c r="CI48" s="8"/>
-      <c r="CJ48" s="8"/>
-      <c r="CK48" s="8"/>
-      <c r="CL48" s="8"/>
-      <c r="CM48" s="8"/>
-      <c r="CN48" s="8"/>
-      <c r="CO48" s="8"/>
-      <c r="CP48" s="8"/>
-      <c r="CQ48" s="8"/>
-      <c r="CR48" s="8"/>
-      <c r="CS48" s="8"/>
-      <c r="CT48" s="8"/>
-      <c r="CU48" s="8"/>
-      <c r="CV48" s="8"/>
-      <c r="CW48" s="8"/>
-      <c r="CX48" s="8"/>
-      <c r="CY48" s="8"/>
-      <c r="CZ48" s="8"/>
-      <c r="DA48" s="8"/>
-      <c r="DB48" s="8"/>
-      <c r="DC48" s="8"/>
-      <c r="DD48" s="8"/>
-      <c r="DE48" s="8"/>
-      <c r="DF48" s="8"/>
-      <c r="DG48" s="8"/>
-      <c r="DH48" s="8"/>
-      <c r="DI48" s="8"/>
-      <c r="DJ48" s="8"/>
-      <c r="DK48" s="8"/>
-      <c r="DL48" s="8"/>
-      <c r="DM48" s="8"/>
-      <c r="DN48" s="8"/>
-      <c r="DO48" s="8"/>
-      <c r="DP48" s="8"/>
-      <c r="DQ48" s="8"/>
-      <c r="DR48" s="8"/>
-      <c r="DS48" s="8"/>
-      <c r="DT48" s="8"/>
-      <c r="DU48" s="8"/>
-      <c r="DV48" s="8"/>
-      <c r="DW48" s="8"/>
-      <c r="DX48" s="8"/>
-      <c r="DY48" s="8"/>
-      <c r="DZ48" s="8"/>
-      <c r="EA48" s="8"/>
-      <c r="EB48" s="8"/>
-      <c r="EC48" s="8"/>
-      <c r="ED48" s="8"/>
-      <c r="EE48" s="8"/>
-      <c r="EF48" s="8"/>
-      <c r="EG48" s="8"/>
-      <c r="EH48" s="8"/>
-      <c r="EI48" s="8"/>
-      <c r="EJ48" s="8"/>
-      <c r="EK48" s="8"/>
-      <c r="EL48" s="8"/>
-      <c r="EM48" s="8"/>
-      <c r="EN48" s="8"/>
-      <c r="EO48" s="8"/>
-      <c r="EP48" s="8"/>
-      <c r="EQ48" s="8"/>
-      <c r="ER48" s="8"/>
-      <c r="ES48" s="8"/>
-    </row>
-    <row r="49" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="21"/>
@@ -6054,9 +6115,9 @@
       <c r="ER49" s="8"/>
       <c r="ES49" s="8"/>
     </row>
-    <row r="50" spans="2:149" s="3" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="13" t="s">
-        <v>26</v>
+    <row r="50" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="21"/>
@@ -6206,173 +6267,173 @@
       <c r="ER50" s="8"/>
       <c r="ES50" s="8"/>
     </row>
-    <row r="51" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="16"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="22"/>
+    <row r="51" spans="2:149" s="3" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="8"/>
+      <c r="AN51" s="8"/>
+      <c r="AO51" s="8"/>
+      <c r="AP51" s="8"/>
+      <c r="AQ51" s="8"/>
+      <c r="AR51" s="8"/>
+      <c r="AS51" s="8"/>
+      <c r="AT51" s="8"/>
+      <c r="AU51" s="8"/>
+      <c r="AV51" s="8"/>
+      <c r="AW51" s="8"/>
+      <c r="AX51" s="8"/>
+      <c r="AY51" s="8"/>
+      <c r="AZ51" s="8"/>
+      <c r="BA51" s="8"/>
+      <c r="BB51" s="8"/>
+      <c r="BC51" s="8"/>
+      <c r="BD51" s="8"/>
+      <c r="BE51" s="8"/>
+      <c r="BF51" s="8"/>
+      <c r="BG51" s="8"/>
+      <c r="BH51" s="8"/>
+      <c r="BI51" s="8"/>
+      <c r="BJ51" s="8"/>
+      <c r="BK51" s="8"/>
+      <c r="BL51" s="8"/>
+      <c r="BM51" s="8"/>
+      <c r="BN51" s="8"/>
+      <c r="BO51" s="8"/>
+      <c r="BP51" s="8"/>
+      <c r="BQ51" s="8"/>
+      <c r="BR51" s="8"/>
+      <c r="BS51" s="8"/>
+      <c r="BT51" s="8"/>
+      <c r="BU51" s="8"/>
+      <c r="BV51" s="8"/>
+      <c r="BW51" s="8"/>
+      <c r="BX51" s="8"/>
+      <c r="BY51" s="8"/>
+      <c r="BZ51" s="8"/>
+      <c r="CA51" s="8"/>
+      <c r="CB51" s="8"/>
+      <c r="CC51" s="8"/>
+      <c r="CD51" s="8"/>
+      <c r="CE51" s="8"/>
+      <c r="CF51" s="8"/>
+      <c r="CG51" s="8"/>
+      <c r="CH51" s="8"/>
+      <c r="CI51" s="8"/>
+      <c r="CJ51" s="8"/>
+      <c r="CK51" s="8"/>
+      <c r="CL51" s="8"/>
+      <c r="CM51" s="8"/>
+      <c r="CN51" s="8"/>
+      <c r="CO51" s="8"/>
+      <c r="CP51" s="8"/>
+      <c r="CQ51" s="8"/>
+      <c r="CR51" s="8"/>
+      <c r="CS51" s="8"/>
+      <c r="CT51" s="8"/>
+      <c r="CU51" s="8"/>
+      <c r="CV51" s="8"/>
+      <c r="CW51" s="8"/>
+      <c r="CX51" s="8"/>
+      <c r="CY51" s="8"/>
+      <c r="CZ51" s="8"/>
+      <c r="DA51" s="8"/>
+      <c r="DB51" s="8"/>
+      <c r="DC51" s="8"/>
+      <c r="DD51" s="8"/>
+      <c r="DE51" s="8"/>
+      <c r="DF51" s="8"/>
+      <c r="DG51" s="8"/>
+      <c r="DH51" s="8"/>
+      <c r="DI51" s="8"/>
+      <c r="DJ51" s="8"/>
+      <c r="DK51" s="8"/>
+      <c r="DL51" s="8"/>
+      <c r="DM51" s="8"/>
+      <c r="DN51" s="8"/>
+      <c r="DO51" s="8"/>
+      <c r="DP51" s="8"/>
+      <c r="DQ51" s="8"/>
+      <c r="DR51" s="8"/>
+      <c r="DS51" s="8"/>
+      <c r="DT51" s="8"/>
+      <c r="DU51" s="8"/>
+      <c r="DV51" s="8"/>
+      <c r="DW51" s="8"/>
+      <c r="DX51" s="8"/>
+      <c r="DY51" s="8"/>
+      <c r="DZ51" s="8"/>
+      <c r="EA51" s="8"/>
+      <c r="EB51" s="8"/>
+      <c r="EC51" s="8"/>
+      <c r="ED51" s="8"/>
+      <c r="EE51" s="8"/>
+      <c r="EF51" s="8"/>
+      <c r="EG51" s="8"/>
+      <c r="EH51" s="8"/>
+      <c r="EI51" s="8"/>
+      <c r="EJ51" s="8"/>
+      <c r="EK51" s="8"/>
+      <c r="EL51" s="8"/>
+      <c r="EM51" s="8"/>
+      <c r="EN51" s="8"/>
+      <c r="EO51" s="8"/>
+      <c r="EP51" s="8"/>
+      <c r="EQ51" s="8"/>
+      <c r="ER51" s="8"/>
+      <c r="ES51" s="8"/>
     </row>
     <row r="52" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="2:149" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="7"/>
-      <c r="AH53" s="7"/>
-      <c r="AI53" s="7"/>
-      <c r="AJ53" s="7"/>
-      <c r="AK53" s="7"/>
-      <c r="AL53" s="7"/>
-      <c r="AM53" s="7"/>
-      <c r="AN53" s="7"/>
-      <c r="AO53" s="7"/>
-      <c r="AP53" s="7"/>
-      <c r="AQ53" s="7"/>
-      <c r="AR53" s="7"/>
-      <c r="AS53" s="7"/>
-      <c r="AT53" s="7"/>
-      <c r="AU53" s="7"/>
-      <c r="AV53" s="7"/>
-      <c r="AW53" s="7"/>
-      <c r="AX53" s="7"/>
-      <c r="AY53" s="7"/>
-      <c r="AZ53" s="7"/>
-      <c r="BA53" s="7"/>
-      <c r="BB53" s="7"/>
-      <c r="BC53" s="7"/>
-      <c r="BD53" s="7"/>
-      <c r="BE53" s="7"/>
-      <c r="BF53" s="7"/>
-      <c r="BG53" s="7"/>
-      <c r="BH53" s="7"/>
-      <c r="BI53" s="7"/>
-      <c r="BJ53" s="7"/>
-      <c r="BK53" s="7"/>
-      <c r="BL53" s="7"/>
-      <c r="BM53" s="7"/>
-      <c r="BN53" s="7"/>
-      <c r="BO53" s="7"/>
-      <c r="BP53" s="7"/>
-      <c r="BQ53" s="7"/>
-      <c r="BR53" s="7"/>
-      <c r="BS53" s="7"/>
-      <c r="BT53" s="7"/>
-      <c r="BU53" s="7"/>
-      <c r="BV53" s="7"/>
-      <c r="BW53" s="7"/>
-      <c r="BX53" s="7"/>
-      <c r="BY53" s="7"/>
-      <c r="BZ53" s="7"/>
-      <c r="CA53" s="7"/>
-      <c r="CB53" s="7"/>
-      <c r="CC53" s="7"/>
-      <c r="CD53" s="7"/>
-      <c r="CE53" s="7"/>
-      <c r="CF53" s="7"/>
-      <c r="CG53" s="7"/>
-      <c r="CH53" s="7"/>
-      <c r="CI53" s="7"/>
-      <c r="CJ53" s="7"/>
-      <c r="CK53" s="7"/>
-      <c r="CL53" s="7"/>
-      <c r="CM53" s="7"/>
-      <c r="CN53" s="7"/>
-      <c r="CO53" s="7"/>
-      <c r="CP53" s="7"/>
-      <c r="CQ53" s="7"/>
-      <c r="CR53" s="7"/>
-      <c r="CS53" s="7"/>
-      <c r="CT53" s="7"/>
-      <c r="CU53" s="7"/>
-      <c r="CV53" s="7"/>
-      <c r="CW53" s="7"/>
-      <c r="CX53" s="7"/>
-      <c r="CY53" s="7"/>
-      <c r="CZ53" s="7"/>
-      <c r="DA53" s="7"/>
-      <c r="DB53" s="7"/>
-      <c r="DC53" s="7"/>
-      <c r="DD53" s="7"/>
-      <c r="DE53" s="7"/>
-      <c r="DF53" s="7"/>
-      <c r="DG53" s="7"/>
-      <c r="DH53" s="7"/>
-      <c r="DI53" s="7"/>
-      <c r="DJ53" s="7"/>
-      <c r="DK53" s="7"/>
-      <c r="DL53" s="7"/>
-      <c r="DM53" s="7"/>
-      <c r="DN53" s="7"/>
-      <c r="DO53" s="7"/>
-      <c r="DP53" s="7"/>
-      <c r="DQ53" s="7"/>
-      <c r="DR53" s="7"/>
-      <c r="DS53" s="7"/>
-      <c r="DT53" s="7"/>
-      <c r="DU53" s="7"/>
-      <c r="DV53" s="7"/>
-      <c r="DW53" s="7"/>
-      <c r="DX53" s="7"/>
-      <c r="DY53" s="7"/>
-      <c r="DZ53" s="7"/>
-      <c r="EA53" s="7"/>
-      <c r="EB53" s="7"/>
-      <c r="EC53" s="7"/>
-      <c r="ED53" s="7"/>
-      <c r="EE53" s="7"/>
-      <c r="EF53" s="7"/>
-      <c r="EG53" s="7"/>
-      <c r="EH53" s="7"/>
-      <c r="EI53" s="7"/>
-      <c r="EJ53" s="7"/>
-      <c r="EK53" s="7"/>
-      <c r="EL53" s="7"/>
-      <c r="EM53" s="7"/>
-      <c r="EN53" s="7"/>
-      <c r="EO53" s="7"/>
-      <c r="EP53" s="7"/>
-      <c r="EQ53" s="7"/>
-      <c r="ER53" s="7"/>
-      <c r="ES53" s="7"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="22"/>
     </row>
     <row r="54" spans="2:149" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="23"/>
@@ -6523,8 +6584,8 @@
       <c r="ES54" s="7"/>
     </row>
     <row r="55" spans="2:149" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="12" t="s">
-        <v>29</v>
+      <c r="B55" s="59" t="s">
+        <v>44</v>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="23"/>
@@ -6676,7 +6737,7 @@
     </row>
     <row r="56" spans="2:149" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C56" s="28"/>
       <c r="D56" s="23"/>
@@ -6826,173 +6887,173 @@
       <c r="ER56" s="7"/>
       <c r="ES56" s="7"/>
     </row>
-    <row r="57" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="16"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="22"/>
+    <row r="57" spans="2:149" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
+      <c r="AP57" s="7"/>
+      <c r="AQ57" s="7"/>
+      <c r="AR57" s="7"/>
+      <c r="AS57" s="7"/>
+      <c r="AT57" s="7"/>
+      <c r="AU57" s="7"/>
+      <c r="AV57" s="7"/>
+      <c r="AW57" s="7"/>
+      <c r="AX57" s="7"/>
+      <c r="AY57" s="7"/>
+      <c r="AZ57" s="7"/>
+      <c r="BA57" s="7"/>
+      <c r="BB57" s="7"/>
+      <c r="BC57" s="7"/>
+      <c r="BD57" s="7"/>
+      <c r="BE57" s="7"/>
+      <c r="BF57" s="7"/>
+      <c r="BG57" s="7"/>
+      <c r="BH57" s="7"/>
+      <c r="BI57" s="7"/>
+      <c r="BJ57" s="7"/>
+      <c r="BK57" s="7"/>
+      <c r="BL57" s="7"/>
+      <c r="BM57" s="7"/>
+      <c r="BN57" s="7"/>
+      <c r="BO57" s="7"/>
+      <c r="BP57" s="7"/>
+      <c r="BQ57" s="7"/>
+      <c r="BR57" s="7"/>
+      <c r="BS57" s="7"/>
+      <c r="BT57" s="7"/>
+      <c r="BU57" s="7"/>
+      <c r="BV57" s="7"/>
+      <c r="BW57" s="7"/>
+      <c r="BX57" s="7"/>
+      <c r="BY57" s="7"/>
+      <c r="BZ57" s="7"/>
+      <c r="CA57" s="7"/>
+      <c r="CB57" s="7"/>
+      <c r="CC57" s="7"/>
+      <c r="CD57" s="7"/>
+      <c r="CE57" s="7"/>
+      <c r="CF57" s="7"/>
+      <c r="CG57" s="7"/>
+      <c r="CH57" s="7"/>
+      <c r="CI57" s="7"/>
+      <c r="CJ57" s="7"/>
+      <c r="CK57" s="7"/>
+      <c r="CL57" s="7"/>
+      <c r="CM57" s="7"/>
+      <c r="CN57" s="7"/>
+      <c r="CO57" s="7"/>
+      <c r="CP57" s="7"/>
+      <c r="CQ57" s="7"/>
+      <c r="CR57" s="7"/>
+      <c r="CS57" s="7"/>
+      <c r="CT57" s="7"/>
+      <c r="CU57" s="7"/>
+      <c r="CV57" s="7"/>
+      <c r="CW57" s="7"/>
+      <c r="CX57" s="7"/>
+      <c r="CY57" s="7"/>
+      <c r="CZ57" s="7"/>
+      <c r="DA57" s="7"/>
+      <c r="DB57" s="7"/>
+      <c r="DC57" s="7"/>
+      <c r="DD57" s="7"/>
+      <c r="DE57" s="7"/>
+      <c r="DF57" s="7"/>
+      <c r="DG57" s="7"/>
+      <c r="DH57" s="7"/>
+      <c r="DI57" s="7"/>
+      <c r="DJ57" s="7"/>
+      <c r="DK57" s="7"/>
+      <c r="DL57" s="7"/>
+      <c r="DM57" s="7"/>
+      <c r="DN57" s="7"/>
+      <c r="DO57" s="7"/>
+      <c r="DP57" s="7"/>
+      <c r="DQ57" s="7"/>
+      <c r="DR57" s="7"/>
+      <c r="DS57" s="7"/>
+      <c r="DT57" s="7"/>
+      <c r="DU57" s="7"/>
+      <c r="DV57" s="7"/>
+      <c r="DW57" s="7"/>
+      <c r="DX57" s="7"/>
+      <c r="DY57" s="7"/>
+      <c r="DZ57" s="7"/>
+      <c r="EA57" s="7"/>
+      <c r="EB57" s="7"/>
+      <c r="EC57" s="7"/>
+      <c r="ED57" s="7"/>
+      <c r="EE57" s="7"/>
+      <c r="EF57" s="7"/>
+      <c r="EG57" s="7"/>
+      <c r="EH57" s="7"/>
+      <c r="EI57" s="7"/>
+      <c r="EJ57" s="7"/>
+      <c r="EK57" s="7"/>
+      <c r="EL57" s="7"/>
+      <c r="EM57" s="7"/>
+      <c r="EN57" s="7"/>
+      <c r="EO57" s="7"/>
+      <c r="EP57" s="7"/>
+      <c r="EQ57" s="7"/>
+      <c r="ER57" s="7"/>
+      <c r="ES57" s="7"/>
     </row>
     <row r="58" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="2:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="22"/>
-    </row>
-    <row r="59" spans="2:149" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
-      <c r="AD59" s="7"/>
-      <c r="AE59" s="7"/>
-      <c r="AF59" s="7"/>
-      <c r="AG59" s="7"/>
-      <c r="AH59" s="7"/>
-      <c r="AI59" s="7"/>
-      <c r="AJ59" s="7"/>
-      <c r="AK59" s="7"/>
-      <c r="AL59" s="7"/>
-      <c r="AM59" s="7"/>
-      <c r="AN59" s="7"/>
-      <c r="AO59" s="7"/>
-      <c r="AP59" s="7"/>
-      <c r="AQ59" s="7"/>
-      <c r="AR59" s="7"/>
-      <c r="AS59" s="7"/>
-      <c r="AT59" s="7"/>
-      <c r="AU59" s="7"/>
-      <c r="AV59" s="7"/>
-      <c r="AW59" s="7"/>
-      <c r="AX59" s="7"/>
-      <c r="AY59" s="7"/>
-      <c r="AZ59" s="7"/>
-      <c r="BA59" s="7"/>
-      <c r="BB59" s="7"/>
-      <c r="BC59" s="7"/>
-      <c r="BD59" s="7"/>
-      <c r="BE59" s="7"/>
-      <c r="BF59" s="7"/>
-      <c r="BG59" s="7"/>
-      <c r="BH59" s="7"/>
-      <c r="BI59" s="7"/>
-      <c r="BJ59" s="7"/>
-      <c r="BK59" s="7"/>
-      <c r="BL59" s="7"/>
-      <c r="BM59" s="7"/>
-      <c r="BN59" s="7"/>
-      <c r="BO59" s="7"/>
-      <c r="BP59" s="7"/>
-      <c r="BQ59" s="7"/>
-      <c r="BR59" s="7"/>
-      <c r="BS59" s="7"/>
-      <c r="BT59" s="7"/>
-      <c r="BU59" s="7"/>
-      <c r="BV59" s="7"/>
-      <c r="BW59" s="7"/>
-      <c r="BX59" s="7"/>
-      <c r="BY59" s="7"/>
-      <c r="BZ59" s="7"/>
-      <c r="CA59" s="7"/>
-      <c r="CB59" s="7"/>
-      <c r="CC59" s="7"/>
-      <c r="CD59" s="7"/>
-      <c r="CE59" s="7"/>
-      <c r="CF59" s="7"/>
-      <c r="CG59" s="7"/>
-      <c r="CH59" s="7"/>
-      <c r="CI59" s="7"/>
-      <c r="CJ59" s="7"/>
-      <c r="CK59" s="7"/>
-      <c r="CL59" s="7"/>
-      <c r="CM59" s="7"/>
-      <c r="CN59" s="7"/>
-      <c r="CO59" s="7"/>
-      <c r="CP59" s="7"/>
-      <c r="CQ59" s="7"/>
-      <c r="CR59" s="7"/>
-      <c r="CS59" s="7"/>
-      <c r="CT59" s="7"/>
-      <c r="CU59" s="7"/>
-      <c r="CV59" s="7"/>
-      <c r="CW59" s="7"/>
-      <c r="CX59" s="7"/>
-      <c r="CY59" s="7"/>
-      <c r="CZ59" s="7"/>
-      <c r="DA59" s="7"/>
-      <c r="DB59" s="7"/>
-      <c r="DC59" s="7"/>
-      <c r="DD59" s="7"/>
-      <c r="DE59" s="7"/>
-      <c r="DF59" s="7"/>
-      <c r="DG59" s="7"/>
-      <c r="DH59" s="7"/>
-      <c r="DI59" s="7"/>
-      <c r="DJ59" s="7"/>
-      <c r="DK59" s="7"/>
-      <c r="DL59" s="7"/>
-      <c r="DM59" s="7"/>
-      <c r="DN59" s="7"/>
-      <c r="DO59" s="7"/>
-      <c r="DP59" s="7"/>
-      <c r="DQ59" s="7"/>
-      <c r="DR59" s="7"/>
-      <c r="DS59" s="7"/>
-      <c r="DT59" s="7"/>
-      <c r="DU59" s="7"/>
-      <c r="DV59" s="7"/>
-      <c r="DW59" s="7"/>
-      <c r="DX59" s="7"/>
-      <c r="DY59" s="7"/>
-      <c r="DZ59" s="7"/>
-      <c r="EA59" s="7"/>
-      <c r="EB59" s="7"/>
-      <c r="EC59" s="7"/>
-      <c r="ED59" s="7"/>
-      <c r="EE59" s="7"/>
-      <c r="EF59" s="7"/>
-      <c r="EG59" s="7"/>
-      <c r="EH59" s="7"/>
-      <c r="EI59" s="7"/>
-      <c r="EJ59" s="7"/>
-      <c r="EK59" s="7"/>
-      <c r="EL59" s="7"/>
-      <c r="EM59" s="7"/>
-      <c r="EN59" s="7"/>
-      <c r="EO59" s="7"/>
-      <c r="EP59" s="7"/>
-      <c r="EQ59" s="7"/>
-      <c r="ER59" s="7"/>
-      <c r="ES59" s="7"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="2:149" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C60" s="28"/>
       <c r="D60" s="23"/>
@@ -7144,7 +7205,7 @@
     </row>
     <row r="61" spans="2:149" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C61" s="28"/>
       <c r="D61" s="23"/>
@@ -7294,176 +7355,176 @@
       <c r="ER61" s="7"/>
       <c r="ES61" s="7"/>
     </row>
-    <row r="62" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="40"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="38"/>
+    <row r="62" spans="2:149" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="7"/>
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="7"/>
+      <c r="AT62" s="7"/>
+      <c r="AU62" s="7"/>
+      <c r="AV62" s="7"/>
+      <c r="AW62" s="7"/>
+      <c r="AX62" s="7"/>
+      <c r="AY62" s="7"/>
+      <c r="AZ62" s="7"/>
+      <c r="BA62" s="7"/>
+      <c r="BB62" s="7"/>
+      <c r="BC62" s="7"/>
+      <c r="BD62" s="7"/>
+      <c r="BE62" s="7"/>
+      <c r="BF62" s="7"/>
+      <c r="BG62" s="7"/>
+      <c r="BH62" s="7"/>
+      <c r="BI62" s="7"/>
+      <c r="BJ62" s="7"/>
+      <c r="BK62" s="7"/>
+      <c r="BL62" s="7"/>
+      <c r="BM62" s="7"/>
+      <c r="BN62" s="7"/>
+      <c r="BO62" s="7"/>
+      <c r="BP62" s="7"/>
+      <c r="BQ62" s="7"/>
+      <c r="BR62" s="7"/>
+      <c r="BS62" s="7"/>
+      <c r="BT62" s="7"/>
+      <c r="BU62" s="7"/>
+      <c r="BV62" s="7"/>
+      <c r="BW62" s="7"/>
+      <c r="BX62" s="7"/>
+      <c r="BY62" s="7"/>
+      <c r="BZ62" s="7"/>
+      <c r="CA62" s="7"/>
+      <c r="CB62" s="7"/>
+      <c r="CC62" s="7"/>
+      <c r="CD62" s="7"/>
+      <c r="CE62" s="7"/>
+      <c r="CF62" s="7"/>
+      <c r="CG62" s="7"/>
+      <c r="CH62" s="7"/>
+      <c r="CI62" s="7"/>
+      <c r="CJ62" s="7"/>
+      <c r="CK62" s="7"/>
+      <c r="CL62" s="7"/>
+      <c r="CM62" s="7"/>
+      <c r="CN62" s="7"/>
+      <c r="CO62" s="7"/>
+      <c r="CP62" s="7"/>
+      <c r="CQ62" s="7"/>
+      <c r="CR62" s="7"/>
+      <c r="CS62" s="7"/>
+      <c r="CT62" s="7"/>
+      <c r="CU62" s="7"/>
+      <c r="CV62" s="7"/>
+      <c r="CW62" s="7"/>
+      <c r="CX62" s="7"/>
+      <c r="CY62" s="7"/>
+      <c r="CZ62" s="7"/>
+      <c r="DA62" s="7"/>
+      <c r="DB62" s="7"/>
+      <c r="DC62" s="7"/>
+      <c r="DD62" s="7"/>
+      <c r="DE62" s="7"/>
+      <c r="DF62" s="7"/>
+      <c r="DG62" s="7"/>
+      <c r="DH62" s="7"/>
+      <c r="DI62" s="7"/>
+      <c r="DJ62" s="7"/>
+      <c r="DK62" s="7"/>
+      <c r="DL62" s="7"/>
+      <c r="DM62" s="7"/>
+      <c r="DN62" s="7"/>
+      <c r="DO62" s="7"/>
+      <c r="DP62" s="7"/>
+      <c r="DQ62" s="7"/>
+      <c r="DR62" s="7"/>
+      <c r="DS62" s="7"/>
+      <c r="DT62" s="7"/>
+      <c r="DU62" s="7"/>
+      <c r="DV62" s="7"/>
+      <c r="DW62" s="7"/>
+      <c r="DX62" s="7"/>
+      <c r="DY62" s="7"/>
+      <c r="DZ62" s="7"/>
+      <c r="EA62" s="7"/>
+      <c r="EB62" s="7"/>
+      <c r="EC62" s="7"/>
+      <c r="ED62" s="7"/>
+      <c r="EE62" s="7"/>
+      <c r="EF62" s="7"/>
+      <c r="EG62" s="7"/>
+      <c r="EH62" s="7"/>
+      <c r="EI62" s="7"/>
+      <c r="EJ62" s="7"/>
+      <c r="EK62" s="7"/>
+      <c r="EL62" s="7"/>
+      <c r="EM62" s="7"/>
+      <c r="EN62" s="7"/>
+      <c r="EO62" s="7"/>
+      <c r="EP62" s="7"/>
+      <c r="EQ62" s="7"/>
+      <c r="ER62" s="7"/>
+      <c r="ES62" s="7"/>
     </row>
     <row r="63" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="40"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="38"/>
+    </row>
+    <row r="64" spans="2:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
-    </row>
-    <row r="64" spans="2:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="30" t="s">
+      <c r="C64" s="34"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="8"/>
-      <c r="AC64" s="8"/>
-      <c r="AD64" s="8"/>
-      <c r="AE64" s="8"/>
-      <c r="AF64" s="8"/>
-      <c r="AG64" s="8"/>
-      <c r="AH64" s="8"/>
-      <c r="AI64" s="8"/>
-      <c r="AJ64" s="8"/>
-      <c r="AK64" s="8"/>
-      <c r="AL64" s="8"/>
-      <c r="AM64" s="8"/>
-      <c r="AN64" s="8"/>
-      <c r="AO64" s="8"/>
-      <c r="AP64" s="8"/>
-      <c r="AQ64" s="8"/>
-      <c r="AR64" s="8"/>
-      <c r="AS64" s="8"/>
-      <c r="AT64" s="8"/>
-      <c r="AU64" s="8"/>
-      <c r="AV64" s="8"/>
-      <c r="AW64" s="8"/>
-      <c r="AX64" s="8"/>
-      <c r="AY64" s="8"/>
-      <c r="AZ64" s="8"/>
-      <c r="BA64" s="8"/>
-      <c r="BB64" s="8"/>
-      <c r="BC64" s="8"/>
-      <c r="BD64" s="8"/>
-      <c r="BE64" s="8"/>
-      <c r="BF64" s="8"/>
-      <c r="BG64" s="8"/>
-      <c r="BH64" s="8"/>
-      <c r="BI64" s="8"/>
-      <c r="BJ64" s="8"/>
-      <c r="BK64" s="8"/>
-      <c r="BL64" s="8"/>
-      <c r="BM64" s="8"/>
-      <c r="BN64" s="8"/>
-      <c r="BO64" s="8"/>
-      <c r="BP64" s="8"/>
-      <c r="BQ64" s="8"/>
-      <c r="BR64" s="8"/>
-      <c r="BS64" s="8"/>
-      <c r="BT64" s="8"/>
-      <c r="BU64" s="8"/>
-      <c r="BV64" s="8"/>
-      <c r="BW64" s="8"/>
-      <c r="BX64" s="8"/>
-      <c r="BY64" s="8"/>
-      <c r="BZ64" s="8"/>
-      <c r="CA64" s="8"/>
-      <c r="CB64" s="8"/>
-      <c r="CC64" s="8"/>
-      <c r="CD64" s="8"/>
-      <c r="CE64" s="8"/>
-      <c r="CF64" s="8"/>
-      <c r="CG64" s="8"/>
-      <c r="CH64" s="8"/>
-      <c r="CI64" s="8"/>
-      <c r="CJ64" s="8"/>
-      <c r="CK64" s="8"/>
-      <c r="CL64" s="8"/>
-      <c r="CM64" s="8"/>
-      <c r="CN64" s="8"/>
-      <c r="CO64" s="8"/>
-      <c r="CP64" s="8"/>
-      <c r="CQ64" s="8"/>
-      <c r="CR64" s="8"/>
-      <c r="CS64" s="8"/>
-      <c r="CT64" s="8"/>
-      <c r="CU64" s="8"/>
-      <c r="CV64" s="8"/>
-      <c r="CW64" s="8"/>
-      <c r="CX64" s="8"/>
-      <c r="CY64" s="8"/>
-      <c r="CZ64" s="8"/>
-      <c r="DA64" s="8"/>
-      <c r="DB64" s="8"/>
-      <c r="DC64" s="8"/>
-      <c r="DD64" s="8"/>
-      <c r="DE64" s="8"/>
-      <c r="DF64" s="8"/>
-      <c r="DG64" s="8"/>
-      <c r="DH64" s="8"/>
-      <c r="DI64" s="8"/>
-      <c r="DJ64" s="8"/>
-      <c r="DK64" s="8"/>
-      <c r="DL64" s="8"/>
-      <c r="DM64" s="8"/>
-      <c r="DN64" s="8"/>
-      <c r="DO64" s="8"/>
-      <c r="DP64" s="8"/>
-      <c r="DQ64" s="8"/>
-      <c r="DR64" s="8"/>
-      <c r="DS64" s="8"/>
-      <c r="DT64" s="8"/>
-      <c r="DU64" s="8"/>
-      <c r="DV64" s="8"/>
-      <c r="DW64" s="8"/>
-      <c r="DX64" s="8"/>
-      <c r="DY64" s="8"/>
-      <c r="DZ64" s="8"/>
-      <c r="EA64" s="8"/>
-      <c r="EB64" s="8"/>
-      <c r="EC64" s="8"/>
-      <c r="ED64" s="8"/>
-      <c r="EE64" s="8"/>
-      <c r="EF64" s="8"/>
-      <c r="EG64" s="8"/>
-      <c r="EH64" s="8"/>
-      <c r="EI64" s="8"/>
-      <c r="EJ64" s="8"/>
-      <c r="EK64" s="8"/>
-      <c r="EL64" s="8"/>
-      <c r="EM64" s="8"/>
-      <c r="EN64" s="8"/>
-      <c r="EO64" s="8"/>
-      <c r="EP64" s="8"/>
-      <c r="EQ64" s="8"/>
-      <c r="ER64" s="8"/>
-      <c r="ES64" s="8"/>
-    </row>
-    <row r="65" spans="1:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="26"/>
-      <c r="D65" s="21"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -7612,7 +7673,7 @@
     </row>
     <row r="66" spans="1:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C66" s="26"/>
       <c r="D66" s="21"/>
@@ -7764,7 +7825,7 @@
     </row>
     <row r="67" spans="1:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C67" s="26"/>
       <c r="D67" s="21"/>
@@ -7916,7 +7977,7 @@
     </row>
     <row r="68" spans="1:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" s="26"/>
       <c r="D68" s="21"/>
@@ -8066,9 +8127,9 @@
       <c r="ER68" s="8"/>
       <c r="ES68" s="8"/>
     </row>
-    <row r="69" spans="1:149" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B69" s="13" t="s">
-        <v>43</v>
+    <row r="69" spans="1:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="21"/>
@@ -8218,9 +8279,9 @@
       <c r="ER69" s="8"/>
       <c r="ES69" s="8"/>
     </row>
-    <row r="70" spans="1:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="18" t="s">
-        <v>38</v>
+    <row r="70" spans="1:149" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B70" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C70" s="26"/>
       <c r="D70" s="21"/>
@@ -8372,7 +8433,7 @@
     </row>
     <row r="71" spans="1:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" s="26"/>
       <c r="D71" s="21"/>
@@ -8522,178 +8583,177 @@
       <c r="ER71" s="8"/>
       <c r="ES71" s="8"/>
     </row>
-    <row r="72" spans="1:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="45"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="38"/>
+    <row r="72" spans="1:149" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="8"/>
+      <c r="AN72" s="8"/>
+      <c r="AO72" s="8"/>
+      <c r="AP72" s="8"/>
+      <c r="AQ72" s="8"/>
+      <c r="AR72" s="8"/>
+      <c r="AS72" s="8"/>
+      <c r="AT72" s="8"/>
+      <c r="AU72" s="8"/>
+      <c r="AV72" s="8"/>
+      <c r="AW72" s="8"/>
+      <c r="AX72" s="8"/>
+      <c r="AY72" s="8"/>
+      <c r="AZ72" s="8"/>
+      <c r="BA72" s="8"/>
+      <c r="BB72" s="8"/>
+      <c r="BC72" s="8"/>
+      <c r="BD72" s="8"/>
+      <c r="BE72" s="8"/>
+      <c r="BF72" s="8"/>
+      <c r="BG72" s="8"/>
+      <c r="BH72" s="8"/>
+      <c r="BI72" s="8"/>
+      <c r="BJ72" s="8"/>
+      <c r="BK72" s="8"/>
+      <c r="BL72" s="8"/>
+      <c r="BM72" s="8"/>
+      <c r="BN72" s="8"/>
+      <c r="BO72" s="8"/>
+      <c r="BP72" s="8"/>
+      <c r="BQ72" s="8"/>
+      <c r="BR72" s="8"/>
+      <c r="BS72" s="8"/>
+      <c r="BT72" s="8"/>
+      <c r="BU72" s="8"/>
+      <c r="BV72" s="8"/>
+      <c r="BW72" s="8"/>
+      <c r="BX72" s="8"/>
+      <c r="BY72" s="8"/>
+      <c r="BZ72" s="8"/>
+      <c r="CA72" s="8"/>
+      <c r="CB72" s="8"/>
+      <c r="CC72" s="8"/>
+      <c r="CD72" s="8"/>
+      <c r="CE72" s="8"/>
+      <c r="CF72" s="8"/>
+      <c r="CG72" s="8"/>
+      <c r="CH72" s="8"/>
+      <c r="CI72" s="8"/>
+      <c r="CJ72" s="8"/>
+      <c r="CK72" s="8"/>
+      <c r="CL72" s="8"/>
+      <c r="CM72" s="8"/>
+      <c r="CN72" s="8"/>
+      <c r="CO72" s="8"/>
+      <c r="CP72" s="8"/>
+      <c r="CQ72" s="8"/>
+      <c r="CR72" s="8"/>
+      <c r="CS72" s="8"/>
+      <c r="CT72" s="8"/>
+      <c r="CU72" s="8"/>
+      <c r="CV72" s="8"/>
+      <c r="CW72" s="8"/>
+      <c r="CX72" s="8"/>
+      <c r="CY72" s="8"/>
+      <c r="CZ72" s="8"/>
+      <c r="DA72" s="8"/>
+      <c r="DB72" s="8"/>
+      <c r="DC72" s="8"/>
+      <c r="DD72" s="8"/>
+      <c r="DE72" s="8"/>
+      <c r="DF72" s="8"/>
+      <c r="DG72" s="8"/>
+      <c r="DH72" s="8"/>
+      <c r="DI72" s="8"/>
+      <c r="DJ72" s="8"/>
+      <c r="DK72" s="8"/>
+      <c r="DL72" s="8"/>
+      <c r="DM72" s="8"/>
+      <c r="DN72" s="8"/>
+      <c r="DO72" s="8"/>
+      <c r="DP72" s="8"/>
+      <c r="DQ72" s="8"/>
+      <c r="DR72" s="8"/>
+      <c r="DS72" s="8"/>
+      <c r="DT72" s="8"/>
+      <c r="DU72" s="8"/>
+      <c r="DV72" s="8"/>
+      <c r="DW72" s="8"/>
+      <c r="DX72" s="8"/>
+      <c r="DY72" s="8"/>
+      <c r="DZ72" s="8"/>
+      <c r="EA72" s="8"/>
+      <c r="EB72" s="8"/>
+      <c r="EC72" s="8"/>
+      <c r="ED72" s="8"/>
+      <c r="EE72" s="8"/>
+      <c r="EF72" s="8"/>
+      <c r="EG72" s="8"/>
+      <c r="EH72" s="8"/>
+      <c r="EI72" s="8"/>
+      <c r="EJ72" s="8"/>
+      <c r="EK72" s="8"/>
+      <c r="EL72" s="8"/>
+      <c r="EM72" s="8"/>
+      <c r="EN72" s="8"/>
+      <c r="EO72" s="8"/>
+      <c r="EP72" s="8"/>
+      <c r="EQ72" s="8"/>
+      <c r="ER72" s="8"/>
+      <c r="ES72" s="8"/>
     </row>
     <row r="73" spans="1:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="45"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="38"/>
+    </row>
+    <row r="74" spans="1:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="35"/>
-    </row>
-    <row r="74" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
-      <c r="B74" s="30" t="s">
+      <c r="C74" s="34"/>
+      <c r="D74" s="35"/>
+    </row>
+    <row r="75" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+      <c r="B75" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="46"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="7"/>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="7"/>
-      <c r="Z74" s="7"/>
-      <c r="AA74" s="7"/>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="7"/>
-      <c r="AD74" s="7"/>
-      <c r="AE74" s="7"/>
-      <c r="AF74" s="7"/>
-      <c r="AG74" s="7"/>
-      <c r="AH74" s="7"/>
-      <c r="AI74" s="7"/>
-      <c r="AJ74" s="7"/>
-      <c r="AK74" s="7"/>
-      <c r="AL74" s="7"/>
-      <c r="AM74" s="7"/>
-      <c r="AN74" s="7"/>
-      <c r="AO74" s="7"/>
-      <c r="AP74" s="7"/>
-      <c r="AQ74" s="7"/>
-      <c r="AR74" s="7"/>
-      <c r="AS74" s="7"/>
-      <c r="AT74" s="7"/>
-      <c r="AU74" s="7"/>
-      <c r="AV74" s="7"/>
-      <c r="AW74" s="7"/>
-      <c r="AX74" s="7"/>
-      <c r="AY74" s="7"/>
-      <c r="AZ74" s="7"/>
-      <c r="BA74" s="7"/>
-      <c r="BB74" s="7"/>
-      <c r="BC74" s="7"/>
-      <c r="BD74" s="7"/>
-      <c r="BE74" s="7"/>
-      <c r="BF74" s="7"/>
-      <c r="BG74" s="7"/>
-      <c r="BH74" s="7"/>
-      <c r="BI74" s="7"/>
-      <c r="BJ74" s="7"/>
-      <c r="BK74" s="7"/>
-      <c r="BL74" s="7"/>
-      <c r="BM74" s="7"/>
-      <c r="BN74" s="7"/>
-      <c r="BO74" s="7"/>
-      <c r="BP74" s="7"/>
-      <c r="BQ74" s="7"/>
-      <c r="BR74" s="7"/>
-      <c r="BS74" s="7"/>
-      <c r="BT74" s="7"/>
-      <c r="BU74" s="7"/>
-      <c r="BV74" s="7"/>
-      <c r="BW74" s="7"/>
-      <c r="BX74" s="7"/>
-      <c r="BY74" s="7"/>
-      <c r="BZ74" s="7"/>
-      <c r="CA74" s="7"/>
-      <c r="CB74" s="7"/>
-      <c r="CC74" s="7"/>
-      <c r="CD74" s="7"/>
-      <c r="CE74" s="7"/>
-      <c r="CF74" s="7"/>
-      <c r="CG74" s="7"/>
-      <c r="CH74" s="7"/>
-      <c r="CI74" s="7"/>
-      <c r="CJ74" s="7"/>
-      <c r="CK74" s="7"/>
-      <c r="CL74" s="7"/>
-      <c r="CM74" s="7"/>
-      <c r="CN74" s="7"/>
-      <c r="CO74" s="7"/>
-      <c r="CP74" s="7"/>
-      <c r="CQ74" s="7"/>
-      <c r="CR74" s="7"/>
-      <c r="CS74" s="7"/>
-      <c r="CT74" s="7"/>
-      <c r="CU74" s="7"/>
-      <c r="CV74" s="7"/>
-      <c r="CW74" s="7"/>
-      <c r="CX74" s="7"/>
-      <c r="CY74" s="7"/>
-      <c r="CZ74" s="7"/>
-      <c r="DA74" s="7"/>
-      <c r="DB74" s="7"/>
-      <c r="DC74" s="7"/>
-      <c r="DD74" s="7"/>
-      <c r="DE74" s="7"/>
-      <c r="DF74" s="7"/>
-      <c r="DG74" s="7"/>
-      <c r="DH74" s="7"/>
-      <c r="DI74" s="7"/>
-      <c r="DJ74" s="7"/>
-      <c r="DK74" s="7"/>
-      <c r="DL74" s="7"/>
-      <c r="DM74" s="7"/>
-      <c r="DN74" s="7"/>
-      <c r="DO74" s="7"/>
-      <c r="DP74" s="7"/>
-      <c r="DQ74" s="7"/>
-      <c r="DR74" s="7"/>
-      <c r="DS74" s="7"/>
-      <c r="DT74" s="7"/>
-      <c r="DU74" s="7"/>
-      <c r="DV74" s="7"/>
-      <c r="DW74" s="7"/>
-      <c r="DX74" s="7"/>
-      <c r="DY74" s="7"/>
-      <c r="DZ74" s="7"/>
-      <c r="EA74" s="7"/>
-      <c r="EB74" s="7"/>
-      <c r="EC74" s="7"/>
-      <c r="ED74" s="7"/>
-      <c r="EE74" s="7"/>
-      <c r="EF74" s="7"/>
-      <c r="EG74" s="7"/>
-      <c r="EH74" s="7"/>
-      <c r="EI74" s="7"/>
-      <c r="EJ74" s="7"/>
-      <c r="EK74" s="7"/>
-      <c r="EL74" s="7"/>
-      <c r="EM74" s="7"/>
-      <c r="EN74" s="7"/>
-      <c r="EO74" s="7"/>
-      <c r="EP74" s="7"/>
-      <c r="EQ74" s="7"/>
-      <c r="ER74" s="7"/>
-      <c r="ES74" s="7"/>
-    </row>
-    <row r="75" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
-      <c r="B75" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="23"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="47"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -8840,10 +8900,10 @@
       <c r="ER75" s="7"/>
       <c r="ES75" s="7"/>
     </row>
-    <row r="76" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
       <c r="B76" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="28"/>
       <c r="D76" s="23"/>
@@ -8995,8 +9055,8 @@
     </row>
     <row r="77" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
-      <c r="B77" s="19" t="s">
-        <v>68</v>
+      <c r="B77" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="C77" s="28"/>
       <c r="D77" s="23"/>
@@ -9149,7 +9209,7 @@
     <row r="78" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A78" s="5"/>
       <c r="B78" s="19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C78" s="28"/>
       <c r="D78" s="23"/>
@@ -9302,7 +9362,7 @@
     <row r="79" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="5"/>
       <c r="B79" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="28"/>
       <c r="D79" s="23"/>
@@ -9455,7 +9515,7 @@
     <row r="80" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="5"/>
       <c r="B80" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="28"/>
       <c r="D80" s="23"/>
@@ -9608,7 +9668,7 @@
     <row r="81" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="5"/>
       <c r="B81" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C81" s="28"/>
       <c r="D81" s="23"/>
@@ -9758,201 +9818,201 @@
       <c r="ER81" s="7"/>
       <c r="ES81" s="7"/>
     </row>
-    <row r="82" spans="1:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="36"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="38"/>
-    </row>
-    <row r="83" spans="1:149" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="33" t="s">
+    <row r="82" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A82" s="5"/>
+      <c r="B82" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="28"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="7"/>
+      <c r="AI82" s="7"/>
+      <c r="AJ82" s="7"/>
+      <c r="AK82" s="7"/>
+      <c r="AL82" s="7"/>
+      <c r="AM82" s="7"/>
+      <c r="AN82" s="7"/>
+      <c r="AO82" s="7"/>
+      <c r="AP82" s="7"/>
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="7"/>
+      <c r="AS82" s="7"/>
+      <c r="AT82" s="7"/>
+      <c r="AU82" s="7"/>
+      <c r="AV82" s="7"/>
+      <c r="AW82" s="7"/>
+      <c r="AX82" s="7"/>
+      <c r="AY82" s="7"/>
+      <c r="AZ82" s="7"/>
+      <c r="BA82" s="7"/>
+      <c r="BB82" s="7"/>
+      <c r="BC82" s="7"/>
+      <c r="BD82" s="7"/>
+      <c r="BE82" s="7"/>
+      <c r="BF82" s="7"/>
+      <c r="BG82" s="7"/>
+      <c r="BH82" s="7"/>
+      <c r="BI82" s="7"/>
+      <c r="BJ82" s="7"/>
+      <c r="BK82" s="7"/>
+      <c r="BL82" s="7"/>
+      <c r="BM82" s="7"/>
+      <c r="BN82" s="7"/>
+      <c r="BO82" s="7"/>
+      <c r="BP82" s="7"/>
+      <c r="BQ82" s="7"/>
+      <c r="BR82" s="7"/>
+      <c r="BS82" s="7"/>
+      <c r="BT82" s="7"/>
+      <c r="BU82" s="7"/>
+      <c r="BV82" s="7"/>
+      <c r="BW82" s="7"/>
+      <c r="BX82" s="7"/>
+      <c r="BY82" s="7"/>
+      <c r="BZ82" s="7"/>
+      <c r="CA82" s="7"/>
+      <c r="CB82" s="7"/>
+      <c r="CC82" s="7"/>
+      <c r="CD82" s="7"/>
+      <c r="CE82" s="7"/>
+      <c r="CF82" s="7"/>
+      <c r="CG82" s="7"/>
+      <c r="CH82" s="7"/>
+      <c r="CI82" s="7"/>
+      <c r="CJ82" s="7"/>
+      <c r="CK82" s="7"/>
+      <c r="CL82" s="7"/>
+      <c r="CM82" s="7"/>
+      <c r="CN82" s="7"/>
+      <c r="CO82" s="7"/>
+      <c r="CP82" s="7"/>
+      <c r="CQ82" s="7"/>
+      <c r="CR82" s="7"/>
+      <c r="CS82" s="7"/>
+      <c r="CT82" s="7"/>
+      <c r="CU82" s="7"/>
+      <c r="CV82" s="7"/>
+      <c r="CW82" s="7"/>
+      <c r="CX82" s="7"/>
+      <c r="CY82" s="7"/>
+      <c r="CZ82" s="7"/>
+      <c r="DA82" s="7"/>
+      <c r="DB82" s="7"/>
+      <c r="DC82" s="7"/>
+      <c r="DD82" s="7"/>
+      <c r="DE82" s="7"/>
+      <c r="DF82" s="7"/>
+      <c r="DG82" s="7"/>
+      <c r="DH82" s="7"/>
+      <c r="DI82" s="7"/>
+      <c r="DJ82" s="7"/>
+      <c r="DK82" s="7"/>
+      <c r="DL82" s="7"/>
+      <c r="DM82" s="7"/>
+      <c r="DN82" s="7"/>
+      <c r="DO82" s="7"/>
+      <c r="DP82" s="7"/>
+      <c r="DQ82" s="7"/>
+      <c r="DR82" s="7"/>
+      <c r="DS82" s="7"/>
+      <c r="DT82" s="7"/>
+      <c r="DU82" s="7"/>
+      <c r="DV82" s="7"/>
+      <c r="DW82" s="7"/>
+      <c r="DX82" s="7"/>
+      <c r="DY82" s="7"/>
+      <c r="DZ82" s="7"/>
+      <c r="EA82" s="7"/>
+      <c r="EB82" s="7"/>
+      <c r="EC82" s="7"/>
+      <c r="ED82" s="7"/>
+      <c r="EE82" s="7"/>
+      <c r="EF82" s="7"/>
+      <c r="EG82" s="7"/>
+      <c r="EH82" s="7"/>
+      <c r="EI82" s="7"/>
+      <c r="EJ82" s="7"/>
+      <c r="EK82" s="7"/>
+      <c r="EL82" s="7"/>
+      <c r="EM82" s="7"/>
+      <c r="EN82" s="7"/>
+      <c r="EO82" s="7"/>
+      <c r="EP82" s="7"/>
+      <c r="EQ82" s="7"/>
+      <c r="ER82" s="7"/>
+      <c r="ES82" s="7"/>
+    </row>
+    <row r="83" spans="1:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="36"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="38"/>
+    </row>
+    <row r="84" spans="1:149" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
-      <c r="W83" s="10"/>
-      <c r="X83" s="10"/>
-      <c r="Y83" s="10"/>
-      <c r="Z83" s="10"/>
-      <c r="AA83" s="10"/>
-    </row>
-    <row r="84" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
-      <c r="B84" s="30" t="s">
+      <c r="C84" s="34"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="10"/>
+    </row>
+    <row r="85" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5"/>
+      <c r="B85" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
-      <c r="X84" s="7"/>
-      <c r="Y84" s="7"/>
-      <c r="Z84" s="7"/>
-      <c r="AA84" s="7"/>
-      <c r="AB84" s="7"/>
-      <c r="AC84" s="7"/>
-      <c r="AD84" s="7"/>
-      <c r="AE84" s="7"/>
-      <c r="AF84" s="7"/>
-      <c r="AG84" s="7"/>
-      <c r="AH84" s="7"/>
-      <c r="AI84" s="7"/>
-      <c r="AJ84" s="7"/>
-      <c r="AK84" s="7"/>
-      <c r="AL84" s="7"/>
-      <c r="AM84" s="7"/>
-      <c r="AN84" s="7"/>
-      <c r="AO84" s="7"/>
-      <c r="AP84" s="7"/>
-      <c r="AQ84" s="7"/>
-      <c r="AR84" s="7"/>
-      <c r="AS84" s="7"/>
-      <c r="AT84" s="7"/>
-      <c r="AU84" s="7"/>
-      <c r="AV84" s="7"/>
-      <c r="AW84" s="7"/>
-      <c r="AX84" s="7"/>
-      <c r="AY84" s="7"/>
-      <c r="AZ84" s="7"/>
-      <c r="BA84" s="7"/>
-      <c r="BB84" s="7"/>
-      <c r="BC84" s="7"/>
-      <c r="BD84" s="7"/>
-      <c r="BE84" s="7"/>
-      <c r="BF84" s="7"/>
-      <c r="BG84" s="7"/>
-      <c r="BH84" s="7"/>
-      <c r="BI84" s="7"/>
-      <c r="BJ84" s="7"/>
-      <c r="BK84" s="7"/>
-      <c r="BL84" s="7"/>
-      <c r="BM84" s="7"/>
-      <c r="BN84" s="7"/>
-      <c r="BO84" s="7"/>
-      <c r="BP84" s="7"/>
-      <c r="BQ84" s="7"/>
-      <c r="BR84" s="7"/>
-      <c r="BS84" s="7"/>
-      <c r="BT84" s="7"/>
-      <c r="BU84" s="7"/>
-      <c r="BV84" s="7"/>
-      <c r="BW84" s="7"/>
-      <c r="BX84" s="7"/>
-      <c r="BY84" s="7"/>
-      <c r="BZ84" s="7"/>
-      <c r="CA84" s="7"/>
-      <c r="CB84" s="7"/>
-      <c r="CC84" s="7"/>
-      <c r="CD84" s="7"/>
-      <c r="CE84" s="7"/>
-      <c r="CF84" s="7"/>
-      <c r="CG84" s="7"/>
-      <c r="CH84" s="7"/>
-      <c r="CI84" s="7"/>
-      <c r="CJ84" s="7"/>
-      <c r="CK84" s="7"/>
-      <c r="CL84" s="7"/>
-      <c r="CM84" s="7"/>
-      <c r="CN84" s="7"/>
-      <c r="CO84" s="7"/>
-      <c r="CP84" s="7"/>
-      <c r="CQ84" s="7"/>
-      <c r="CR84" s="7"/>
-      <c r="CS84" s="7"/>
-      <c r="CT84" s="7"/>
-      <c r="CU84" s="7"/>
-      <c r="CV84" s="7"/>
-      <c r="CW84" s="7"/>
-      <c r="CX84" s="7"/>
-      <c r="CY84" s="7"/>
-      <c r="CZ84" s="7"/>
-      <c r="DA84" s="7"/>
-      <c r="DB84" s="7"/>
-      <c r="DC84" s="7"/>
-      <c r="DD84" s="7"/>
-      <c r="DE84" s="7"/>
-      <c r="DF84" s="7"/>
-      <c r="DG84" s="7"/>
-      <c r="DH84" s="7"/>
-      <c r="DI84" s="7"/>
-      <c r="DJ84" s="7"/>
-      <c r="DK84" s="7"/>
-      <c r="DL84" s="7"/>
-      <c r="DM84" s="7"/>
-      <c r="DN84" s="7"/>
-      <c r="DO84" s="7"/>
-      <c r="DP84" s="7"/>
-      <c r="DQ84" s="7"/>
-      <c r="DR84" s="7"/>
-      <c r="DS84" s="7"/>
-      <c r="DT84" s="7"/>
-      <c r="DU84" s="7"/>
-      <c r="DV84" s="7"/>
-      <c r="DW84" s="7"/>
-      <c r="DX84" s="7"/>
-      <c r="DY84" s="7"/>
-      <c r="DZ84" s="7"/>
-      <c r="EA84" s="7"/>
-      <c r="EB84" s="7"/>
-      <c r="EC84" s="7"/>
-      <c r="ED84" s="7"/>
-      <c r="EE84" s="7"/>
-      <c r="EF84" s="7"/>
-      <c r="EG84" s="7"/>
-      <c r="EH84" s="7"/>
-      <c r="EI84" s="7"/>
-      <c r="EJ84" s="7"/>
-      <c r="EK84" s="7"/>
-      <c r="EL84" s="7"/>
-      <c r="EM84" s="7"/>
-      <c r="EN84" s="7"/>
-      <c r="EO84" s="7"/>
-      <c r="EP84" s="7"/>
-      <c r="EQ84" s="7"/>
-      <c r="ER84" s="7"/>
-      <c r="ES84" s="7"/>
-    </row>
-    <row r="85" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="5"/>
-      <c r="B85" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="23"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -10102,7 +10162,7 @@
     <row r="86" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5"/>
       <c r="B86" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C86" s="28"/>
       <c r="D86" s="23"/>
@@ -10252,10 +10312,10 @@
       <c r="ER86" s="7"/>
       <c r="ES86" s="7"/>
     </row>
-    <row r="87" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5"/>
       <c r="B87" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87" s="28"/>
       <c r="D87" s="23"/>
@@ -10407,8 +10467,8 @@
     </row>
     <row r="88" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="5"/>
-      <c r="B88" s="12" t="s">
-        <v>75</v>
+      <c r="B88" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="C88" s="28"/>
       <c r="D88" s="23"/>
@@ -10561,7 +10621,7 @@
     <row r="89" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="5"/>
       <c r="B89" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89" s="28"/>
       <c r="D89" s="23"/>
@@ -10711,13 +10771,13 @@
       <c r="ER89" s="7"/>
       <c r="ES89" s="7"/>
     </row>
-    <row r="90" spans="1:149" s="4" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="5"/>
-      <c r="B90" s="20" t="s">
-        <v>77</v>
+      <c r="B90" s="12" t="s">
+        <v>76</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="24"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="23"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
@@ -10864,201 +10924,201 @@
       <c r="ER90" s="7"/>
       <c r="ES90" s="7"/>
     </row>
-    <row r="91" spans="1:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="1"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:149" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="33" t="s">
+    <row r="91" spans="1:149" s="4" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="5"/>
+      <c r="B91" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="7"/>
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="7"/>
+      <c r="AJ91" s="7"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="7"/>
+      <c r="AS91" s="7"/>
+      <c r="AT91" s="7"/>
+      <c r="AU91" s="7"/>
+      <c r="AV91" s="7"/>
+      <c r="AW91" s="7"/>
+      <c r="AX91" s="7"/>
+      <c r="AY91" s="7"/>
+      <c r="AZ91" s="7"/>
+      <c r="BA91" s="7"/>
+      <c r="BB91" s="7"/>
+      <c r="BC91" s="7"/>
+      <c r="BD91" s="7"/>
+      <c r="BE91" s="7"/>
+      <c r="BF91" s="7"/>
+      <c r="BG91" s="7"/>
+      <c r="BH91" s="7"/>
+      <c r="BI91" s="7"/>
+      <c r="BJ91" s="7"/>
+      <c r="BK91" s="7"/>
+      <c r="BL91" s="7"/>
+      <c r="BM91" s="7"/>
+      <c r="BN91" s="7"/>
+      <c r="BO91" s="7"/>
+      <c r="BP91" s="7"/>
+      <c r="BQ91" s="7"/>
+      <c r="BR91" s="7"/>
+      <c r="BS91" s="7"/>
+      <c r="BT91" s="7"/>
+      <c r="BU91" s="7"/>
+      <c r="BV91" s="7"/>
+      <c r="BW91" s="7"/>
+      <c r="BX91" s="7"/>
+      <c r="BY91" s="7"/>
+      <c r="BZ91" s="7"/>
+      <c r="CA91" s="7"/>
+      <c r="CB91" s="7"/>
+      <c r="CC91" s="7"/>
+      <c r="CD91" s="7"/>
+      <c r="CE91" s="7"/>
+      <c r="CF91" s="7"/>
+      <c r="CG91" s="7"/>
+      <c r="CH91" s="7"/>
+      <c r="CI91" s="7"/>
+      <c r="CJ91" s="7"/>
+      <c r="CK91" s="7"/>
+      <c r="CL91" s="7"/>
+      <c r="CM91" s="7"/>
+      <c r="CN91" s="7"/>
+      <c r="CO91" s="7"/>
+      <c r="CP91" s="7"/>
+      <c r="CQ91" s="7"/>
+      <c r="CR91" s="7"/>
+      <c r="CS91" s="7"/>
+      <c r="CT91" s="7"/>
+      <c r="CU91" s="7"/>
+      <c r="CV91" s="7"/>
+      <c r="CW91" s="7"/>
+      <c r="CX91" s="7"/>
+      <c r="CY91" s="7"/>
+      <c r="CZ91" s="7"/>
+      <c r="DA91" s="7"/>
+      <c r="DB91" s="7"/>
+      <c r="DC91" s="7"/>
+      <c r="DD91" s="7"/>
+      <c r="DE91" s="7"/>
+      <c r="DF91" s="7"/>
+      <c r="DG91" s="7"/>
+      <c r="DH91" s="7"/>
+      <c r="DI91" s="7"/>
+      <c r="DJ91" s="7"/>
+      <c r="DK91" s="7"/>
+      <c r="DL91" s="7"/>
+      <c r="DM91" s="7"/>
+      <c r="DN91" s="7"/>
+      <c r="DO91" s="7"/>
+      <c r="DP91" s="7"/>
+      <c r="DQ91" s="7"/>
+      <c r="DR91" s="7"/>
+      <c r="DS91" s="7"/>
+      <c r="DT91" s="7"/>
+      <c r="DU91" s="7"/>
+      <c r="DV91" s="7"/>
+      <c r="DW91" s="7"/>
+      <c r="DX91" s="7"/>
+      <c r="DY91" s="7"/>
+      <c r="DZ91" s="7"/>
+      <c r="EA91" s="7"/>
+      <c r="EB91" s="7"/>
+      <c r="EC91" s="7"/>
+      <c r="ED91" s="7"/>
+      <c r="EE91" s="7"/>
+      <c r="EF91" s="7"/>
+      <c r="EG91" s="7"/>
+      <c r="EH91" s="7"/>
+      <c r="EI91" s="7"/>
+      <c r="EJ91" s="7"/>
+      <c r="EK91" s="7"/>
+      <c r="EL91" s="7"/>
+      <c r="EM91" s="7"/>
+      <c r="EN91" s="7"/>
+      <c r="EO91" s="7"/>
+      <c r="EP91" s="7"/>
+      <c r="EQ91" s="7"/>
+      <c r="ER91" s="7"/>
+      <c r="ES91" s="7"/>
+    </row>
+    <row r="92" spans="1:149" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="1"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:149" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="34"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
+      <c r="AA93" s="10"/>
+    </row>
+    <row r="94" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5"/>
+      <c r="B94" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="34"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="10"/>
-      <c r="S92" s="10"/>
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
-      <c r="X92" s="10"/>
-      <c r="Y92" s="10"/>
-      <c r="Z92" s="10"/>
-      <c r="AA92" s="10"/>
-    </row>
-    <row r="93" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="5"/>
-      <c r="B93" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" s="46"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="7"/>
-      <c r="AD93" s="7"/>
-      <c r="AE93" s="7"/>
-      <c r="AF93" s="7"/>
-      <c r="AG93" s="7"/>
-      <c r="AH93" s="7"/>
-      <c r="AI93" s="7"/>
-      <c r="AJ93" s="7"/>
-      <c r="AK93" s="7"/>
-      <c r="AL93" s="7"/>
-      <c r="AM93" s="7"/>
-      <c r="AN93" s="7"/>
-      <c r="AO93" s="7"/>
-      <c r="AP93" s="7"/>
-      <c r="AQ93" s="7"/>
-      <c r="AR93" s="7"/>
-      <c r="AS93" s="7"/>
-      <c r="AT93" s="7"/>
-      <c r="AU93" s="7"/>
-      <c r="AV93" s="7"/>
-      <c r="AW93" s="7"/>
-      <c r="AX93" s="7"/>
-      <c r="AY93" s="7"/>
-      <c r="AZ93" s="7"/>
-      <c r="BA93" s="7"/>
-      <c r="BB93" s="7"/>
-      <c r="BC93" s="7"/>
-      <c r="BD93" s="7"/>
-      <c r="BE93" s="7"/>
-      <c r="BF93" s="7"/>
-      <c r="BG93" s="7"/>
-      <c r="BH93" s="7"/>
-      <c r="BI93" s="7"/>
-      <c r="BJ93" s="7"/>
-      <c r="BK93" s="7"/>
-      <c r="BL93" s="7"/>
-      <c r="BM93" s="7"/>
-      <c r="BN93" s="7"/>
-      <c r="BO93" s="7"/>
-      <c r="BP93" s="7"/>
-      <c r="BQ93" s="7"/>
-      <c r="BR93" s="7"/>
-      <c r="BS93" s="7"/>
-      <c r="BT93" s="7"/>
-      <c r="BU93" s="7"/>
-      <c r="BV93" s="7"/>
-      <c r="BW93" s="7"/>
-      <c r="BX93" s="7"/>
-      <c r="BY93" s="7"/>
-      <c r="BZ93" s="7"/>
-      <c r="CA93" s="7"/>
-      <c r="CB93" s="7"/>
-      <c r="CC93" s="7"/>
-      <c r="CD93" s="7"/>
-      <c r="CE93" s="7"/>
-      <c r="CF93" s="7"/>
-      <c r="CG93" s="7"/>
-      <c r="CH93" s="7"/>
-      <c r="CI93" s="7"/>
-      <c r="CJ93" s="7"/>
-      <c r="CK93" s="7"/>
-      <c r="CL93" s="7"/>
-      <c r="CM93" s="7"/>
-      <c r="CN93" s="7"/>
-      <c r="CO93" s="7"/>
-      <c r="CP93" s="7"/>
-      <c r="CQ93" s="7"/>
-      <c r="CR93" s="7"/>
-      <c r="CS93" s="7"/>
-      <c r="CT93" s="7"/>
-      <c r="CU93" s="7"/>
-      <c r="CV93" s="7"/>
-      <c r="CW93" s="7"/>
-      <c r="CX93" s="7"/>
-      <c r="CY93" s="7"/>
-      <c r="CZ93" s="7"/>
-      <c r="DA93" s="7"/>
-      <c r="DB93" s="7"/>
-      <c r="DC93" s="7"/>
-      <c r="DD93" s="7"/>
-      <c r="DE93" s="7"/>
-      <c r="DF93" s="7"/>
-      <c r="DG93" s="7"/>
-      <c r="DH93" s="7"/>
-      <c r="DI93" s="7"/>
-      <c r="DJ93" s="7"/>
-      <c r="DK93" s="7"/>
-      <c r="DL93" s="7"/>
-      <c r="DM93" s="7"/>
-      <c r="DN93" s="7"/>
-      <c r="DO93" s="7"/>
-      <c r="DP93" s="7"/>
-      <c r="DQ93" s="7"/>
-      <c r="DR93" s="7"/>
-      <c r="DS93" s="7"/>
-      <c r="DT93" s="7"/>
-      <c r="DU93" s="7"/>
-      <c r="DV93" s="7"/>
-      <c r="DW93" s="7"/>
-      <c r="DX93" s="7"/>
-      <c r="DY93" s="7"/>
-      <c r="DZ93" s="7"/>
-      <c r="EA93" s="7"/>
-      <c r="EB93" s="7"/>
-      <c r="EC93" s="7"/>
-      <c r="ED93" s="7"/>
-      <c r="EE93" s="7"/>
-      <c r="EF93" s="7"/>
-      <c r="EG93" s="7"/>
-      <c r="EH93" s="7"/>
-      <c r="EI93" s="7"/>
-      <c r="EJ93" s="7"/>
-      <c r="EK93" s="7"/>
-      <c r="EL93" s="7"/>
-      <c r="EM93" s="7"/>
-      <c r="EN93" s="7"/>
-      <c r="EO93" s="7"/>
-      <c r="EP93" s="7"/>
-      <c r="EQ93" s="7"/>
-      <c r="ER93" s="7"/>
-      <c r="ES93" s="7"/>
-    </row>
-    <row r="94" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="5"/>
-      <c r="B94" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="23"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
@@ -11207,8 +11267,8 @@
     </row>
     <row r="95" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5"/>
-      <c r="B95" s="58" t="s">
-        <v>81</v>
+      <c r="B95" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C95" s="28"/>
       <c r="D95" s="23"/>
@@ -11358,10 +11418,10 @@
       <c r="ER95" s="7"/>
       <c r="ES95" s="7"/>
     </row>
-    <row r="96" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:149" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5"/>
       <c r="B96" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C96" s="28"/>
       <c r="D96" s="23"/>
@@ -11514,7 +11574,7 @@
     <row r="97" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C97" s="28"/>
       <c r="D97" s="23"/>
@@ -11666,8 +11726,8 @@
     </row>
     <row r="98" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A98" s="5"/>
-      <c r="B98" s="12" t="s">
-        <v>84</v>
+      <c r="B98" s="58" t="s">
+        <v>82</v>
       </c>
       <c r="C98" s="28"/>
       <c r="D98" s="23"/>
@@ -11817,13 +11877,13 @@
       <c r="ER98" s="7"/>
       <c r="ES98" s="7"/>
     </row>
-    <row r="99" spans="1:149" s="4" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:149" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A99" s="5"/>
-      <c r="B99" s="20" t="s">
-        <v>85</v>
+      <c r="B99" s="12" t="s">
+        <v>83</v>
       </c>
-      <c r="C99" s="29"/>
-      <c r="D99" s="24"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="23"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
@@ -11970,10 +12030,158 @@
       <c r="ER99" s="7"/>
       <c r="ES99" s="7"/>
     </row>
-    <row r="100" spans="1:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="1"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="1"/>
+    <row r="100" spans="1:149" s="4" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="5"/>
+      <c r="B100" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="29"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+      <c r="AC100" s="7"/>
+      <c r="AD100" s="7"/>
+      <c r="AE100" s="7"/>
+      <c r="AF100" s="7"/>
+      <c r="AG100" s="7"/>
+      <c r="AH100" s="7"/>
+      <c r="AI100" s="7"/>
+      <c r="AJ100" s="7"/>
+      <c r="AK100" s="7"/>
+      <c r="AL100" s="7"/>
+      <c r="AM100" s="7"/>
+      <c r="AN100" s="7"/>
+      <c r="AO100" s="7"/>
+      <c r="AP100" s="7"/>
+      <c r="AQ100" s="7"/>
+      <c r="AR100" s="7"/>
+      <c r="AS100" s="7"/>
+      <c r="AT100" s="7"/>
+      <c r="AU100" s="7"/>
+      <c r="AV100" s="7"/>
+      <c r="AW100" s="7"/>
+      <c r="AX100" s="7"/>
+      <c r="AY100" s="7"/>
+      <c r="AZ100" s="7"/>
+      <c r="BA100" s="7"/>
+      <c r="BB100" s="7"/>
+      <c r="BC100" s="7"/>
+      <c r="BD100" s="7"/>
+      <c r="BE100" s="7"/>
+      <c r="BF100" s="7"/>
+      <c r="BG100" s="7"/>
+      <c r="BH100" s="7"/>
+      <c r="BI100" s="7"/>
+      <c r="BJ100" s="7"/>
+      <c r="BK100" s="7"/>
+      <c r="BL100" s="7"/>
+      <c r="BM100" s="7"/>
+      <c r="BN100" s="7"/>
+      <c r="BO100" s="7"/>
+      <c r="BP100" s="7"/>
+      <c r="BQ100" s="7"/>
+      <c r="BR100" s="7"/>
+      <c r="BS100" s="7"/>
+      <c r="BT100" s="7"/>
+      <c r="BU100" s="7"/>
+      <c r="BV100" s="7"/>
+      <c r="BW100" s="7"/>
+      <c r="BX100" s="7"/>
+      <c r="BY100" s="7"/>
+      <c r="BZ100" s="7"/>
+      <c r="CA100" s="7"/>
+      <c r="CB100" s="7"/>
+      <c r="CC100" s="7"/>
+      <c r="CD100" s="7"/>
+      <c r="CE100" s="7"/>
+      <c r="CF100" s="7"/>
+      <c r="CG100" s="7"/>
+      <c r="CH100" s="7"/>
+      <c r="CI100" s="7"/>
+      <c r="CJ100" s="7"/>
+      <c r="CK100" s="7"/>
+      <c r="CL100" s="7"/>
+      <c r="CM100" s="7"/>
+      <c r="CN100" s="7"/>
+      <c r="CO100" s="7"/>
+      <c r="CP100" s="7"/>
+      <c r="CQ100" s="7"/>
+      <c r="CR100" s="7"/>
+      <c r="CS100" s="7"/>
+      <c r="CT100" s="7"/>
+      <c r="CU100" s="7"/>
+      <c r="CV100" s="7"/>
+      <c r="CW100" s="7"/>
+      <c r="CX100" s="7"/>
+      <c r="CY100" s="7"/>
+      <c r="CZ100" s="7"/>
+      <c r="DA100" s="7"/>
+      <c r="DB100" s="7"/>
+      <c r="DC100" s="7"/>
+      <c r="DD100" s="7"/>
+      <c r="DE100" s="7"/>
+      <c r="DF100" s="7"/>
+      <c r="DG100" s="7"/>
+      <c r="DH100" s="7"/>
+      <c r="DI100" s="7"/>
+      <c r="DJ100" s="7"/>
+      <c r="DK100" s="7"/>
+      <c r="DL100" s="7"/>
+      <c r="DM100" s="7"/>
+      <c r="DN100" s="7"/>
+      <c r="DO100" s="7"/>
+      <c r="DP100" s="7"/>
+      <c r="DQ100" s="7"/>
+      <c r="DR100" s="7"/>
+      <c r="DS100" s="7"/>
+      <c r="DT100" s="7"/>
+      <c r="DU100" s="7"/>
+      <c r="DV100" s="7"/>
+      <c r="DW100" s="7"/>
+      <c r="DX100" s="7"/>
+      <c r="DY100" s="7"/>
+      <c r="DZ100" s="7"/>
+      <c r="EA100" s="7"/>
+      <c r="EB100" s="7"/>
+      <c r="EC100" s="7"/>
+      <c r="ED100" s="7"/>
+      <c r="EE100" s="7"/>
+      <c r="EF100" s="7"/>
+      <c r="EG100" s="7"/>
+      <c r="EH100" s="7"/>
+      <c r="EI100" s="7"/>
+      <c r="EJ100" s="7"/>
+      <c r="EK100" s="7"/>
+      <c r="EL100" s="7"/>
+      <c r="EM100" s="7"/>
+      <c r="EN100" s="7"/>
+      <c r="EO100" s="7"/>
+      <c r="EP100" s="7"/>
+      <c r="EQ100" s="7"/>
+      <c r="ER100" s="7"/>
+      <c r="ES100" s="7"/>
     </row>
     <row r="101" spans="1:149" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
@@ -16630,10 +16838,15 @@
       <c r="C1031" s="2"/>
       <c r="D1031" s="1"/>
     </row>
-    <row r="1032" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1032" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1032" s="1"/>
       <c r="C1032" s="2"/>
       <c r="D1032" s="1"/>
+    </row>
+    <row r="1033" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1033" s="1"/>
+      <c r="C1033" s="2"/>
+      <c r="D1033" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
